--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4210,3789 +4210,9 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>S$181.22</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>29 Aug 2022</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Funds Transfer 009-1-024105 : I-BANK  </t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>31 Aug 2022</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BOOST JUICE RCS SI NG 30AUG 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>S$11.00</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>S$193.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>31 Aug 2022</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>S$17.00</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>S$221.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>31 Aug 2022</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>S$0.01</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>S$204.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>01 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction IPPUDO - RAFFLES CITY SI NG 30AUG 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>S$68.68</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>S$135.79</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>02 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-3T9BUFVGWIX9 SI NG 31AUG 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>S$16.80</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>S$187.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>02 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>S$70.00</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>S$274.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>04 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>06 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-3TM6MHFWWGBJ SI NG 03SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>S$15.80</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>S$188.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>06 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 4705027From: TAMMY GOH TIAN HUI OTHR Other</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>S$13.00</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>S$217.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>12 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>14 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 12SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>S$17.80</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>S$186.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>14 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 5170545From: ERVIN WONG (HUANG QIHAN) OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>S$48.00</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>S$252.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>15 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 7953685From: GOH WOON KAI OTHR Other</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>S$214.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>16 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BLACK TAP SI NG 14SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>S$104.75</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>S$99.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>16 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction MR COCONUT-PLQ SI NG 14SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>S$13.20</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>S$191.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>19 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>S$63.00</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>S$267.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>21 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 17SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>S$19.60</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>S$184.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>23 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-4WWBVHFWWGAU SI NG 21SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>S$15.70</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>S$188.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>24 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 21SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>S$17.30</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>S$187.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>26 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>26 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>S$110.00</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>S$314.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>28 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction CARLTON HOTEL (S) PL SI NG 26SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>S$40.30</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>S$164.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>28 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction JASONS MARKET PLACE-RA SI NG 26SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>S$39.80</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>S$164.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>29 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction THE SOUP SPOON PL - UN SI NG 26SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>S$67.20</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>S$137.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>29 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 26SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>S$15.00</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>S$189.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>30 Sep 2022</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>S$0.02</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>S$204.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>01 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction SINGPOST - SAM KIOSK SI NG 29SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>S$0.60</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>S$203.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>02 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction HAI DI LAO - PLAZA SIN SI NG 29SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>S$43.00</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>S$161.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>02 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 30SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>S$17.80</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>S$186.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>03 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>04 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BOOST JUICE PAYA LEBAR SI NG 02OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>S$11.00</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>S$193.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>05 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 01OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>S$18.30</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>S$186.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>05 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>S$35.42</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>S$239.89</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>06 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 9742941From: TANG YEW THONG OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>S$12.00</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>S$216.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>07 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 04OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>S$36.42</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>S$168.05</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>08 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>S$23.80</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>S$228.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>09 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 8067305From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>S$112.00</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>S$316.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>09 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>PayNow Transfer To: klaudine OTHR PayNow Transfer @yyannnnn</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>S$56.00</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>S$148.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>10 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>11 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction DECKER BARBECUE PTE LT SI NG 08OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>S$112.99</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>S$91.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>11 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 09OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>S$22.50</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>S$181.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>11 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 08OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>S$23.80</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>S$180.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>11 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 7079721From: SIANG HIE OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>S$27.00</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>S$231.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>12 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction SINGPOST - SAM KIOSK SI NG 10OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>S$0.30</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>S$204.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>12 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction SINGPOST - SAM KIOSK SI NG 10OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>S$0.30</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>S$204.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>13 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 10OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>S$4.10</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>S$200.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>13 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 11OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>S$16.60</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>S$187.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>14 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 6774237From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>S$22.37</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>S$226.84</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>14 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 0366075From: ASON ANG CHEE KAY OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>S$22.36</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>S$226.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>15 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction SINGPOST - SAM KIOSK SI NG 13OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>S$0.30</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>S$204.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>15 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>PayNow Transfer To: klaudine OTHR PayNow Transfer @yyannnnn</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>S$20.00</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>S$184.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>16 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction WWW.AMUSEPROJECTS.COM SI NG 14OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>S$52.00</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>S$152.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>16 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction SP BOXGREEN PTE. LTD SI NG 14OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>S$37.45</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>S$167.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>16 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>17 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Funds Transfer 001-105047-0 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>S$200.00</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>S$4.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>18 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 17OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>S$1.40</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>S$203.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>18 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 1937627From: ONG LAY HONG OTHR Other</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>S$212.40</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>S$416.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>19 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 18OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>S$23.80</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>S$180.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>20 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 17OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>S$12.40</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>S$192.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>21 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 20OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>S$1.50</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>S$202.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>21 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 20OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>S$3.50</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>S$200.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>21 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 6924020From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>S$22.36</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>S$226.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>23 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-43T9LAGWWEC3 SI NG 21OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>S$21.80</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>S$182.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>27 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>PayNow Transfer To: Vineesh OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>S$5.50</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>S$198.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>27 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>28 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BOOST JUICE PAYA LEBAR SI NG 27OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>S$5.50</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>S$198.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>31 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>31 Oct 2022</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>S$0.02</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>S$204.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>02 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction SHOPEE SINGAPORE MP SI NG 28OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>S$12.73</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>S$191.74</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>02 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GUARDIAN- PAYA LEBAR Q SI NG 31OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>S$11.99</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>S$192.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>02 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 01NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>S$1.50</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>S$202.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>02 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 01NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>S$3.90</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>S$200.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>02 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 01NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>S$22.95</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>S$181.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>03 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction LENU (CHEF WAI'S NOODL SI NG 31OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>S$37.08</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>S$167.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>03 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>PayNow Transfer To: Vineesh OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>S$10.20</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>S$194.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>06 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction MR COCONUT-PLQ SI NG 04NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>S$8.80</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>S$195.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>07 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 0492548From: ONG LAY HONG OTHR Other</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>08 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 07NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>S$2.90</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>S$201.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>09 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction WING JOO LOONG-PAYA LE SI NG 07NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>S$4.00</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>S$200.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>09 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction OLD CHANG KEE SI NG 08NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>S$5.90</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>S$198.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>09 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction NIPONG NAEPONG SI NG 07NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>S$49.20</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>S$155.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>10 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction RAMEN HITOYOSHI-JEM SI NG 08NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>S$6.90</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>S$197.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>10 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction AUNTIE ANNE'S - JEM SI NG 08NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>S$3.60</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>S$200.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>10 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>PayNow Transfer To: Vineesh OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>S$16.10</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>S$188.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>11 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction AJIFUKO SI NG 08NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>S$10.80</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>S$193.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>12 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction WURSTHANS SI NG 11NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>S$35.80</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>S$168.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>14 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 3171600From: ONG LAY HONG OTHR Other</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>S$90.00</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>S$294.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>15 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 14NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>S$21.10</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>S$183.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>15 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 14NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>S$2.90</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>S$201.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>15 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>PayNow Transfer To: Qeen OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>S$60.28</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>S$144.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>16 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BOOST JUICE PAYA LEBAR SI NG 15NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>S$5.90</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>S$198.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>17 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction NTUC FP - SINGPOST SI NG 14NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>S$3.65</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>S$200.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>18 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Incoming PayNow Ref 8012633From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>S$35.00</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>S$239.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>20 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction COLLIN'S - WESTGAE SI NG 17NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>S$100.05</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>S$104.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>20 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction SUKIYA@313 SI NG 18NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>S$35.90</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>S$168.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>21 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>22 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 18NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>S$13.80</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>S$190.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>22 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 21NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>S$2.90</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>S$201.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>23 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction DIN TAI FUNG-JEM SI NG 21NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>S$57.20</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>S$147.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>23 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction NET*NETSMM SI NG 21NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>S$7.20</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>S$197.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>25 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 24NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>S$23.30</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>S$181.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>25 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>POS</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Point-Of-Sale</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Point-of-Sale Transaction 43375097,CANOPY COFFEE CLUB NETS</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>S$1.20</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>S$203.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>26 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>POS</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Point-Of-Sale</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Point-of-Sale Transaction 43375097,JOLLIBEE NETS</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>S$23.25</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
-        <is>
           <t>S$204.47</t>
         </is>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>26 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>TTL</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Running Total</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Total Dr/Cr</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>S$1,814.77</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>S$1,825.76</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29 Aug 2022</t>
+          <t>28 Nov 2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Funds Transfer 009-1-024105 : I-BANK </t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 3946391From: ONG LAY HONG OTHR Transfer - Mobile</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31 Aug 2022</t>
+          <t>29 Nov 2022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,18 +527,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Debit Card Transaction BOOST JUICE RCS SI NG 30AUG 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 25NOV 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S$11.00</t>
+          <t>S$21.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S$193.47</t>
+          <t>S$182.72</t>
         </is>
       </c>
     </row>
@@ -548,33 +548,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31 Aug 2022</t>
+          <t>29 Nov 2022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S$17.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 26NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S$19.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>S$221.47</t>
+          <t>S$185.07</t>
         </is>
       </c>
     </row>
@@ -584,33 +584,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31 Aug 2022</t>
+          <t>29 Nov 2022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>S$0.01</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 27NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S$28.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S$204.48</t>
+          <t>S$175.77</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01 Sep 2022</t>
+          <t>30 Nov 2022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,18 +635,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Debit Card Transaction IPPUDO - RAFFLES CITY SI NG 30AUG 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 28NOV 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S$68.68</t>
+          <t>S$43.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S$135.79</t>
+          <t>S$161.27</t>
         </is>
       </c>
     </row>
@@ -656,33 +656,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02 Sep 2022</t>
+          <t>30 Nov 2022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GRAB* A-3T9BUFVGWIX9 SI NG 31AUG 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S$16.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S$0.02</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S$187.67</t>
+          <t>S$204.49</t>
         </is>
       </c>
     </row>
@@ -692,12 +692,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02 Sep 2022</t>
+          <t>03 Dec 2022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -707,18 +707,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>S$70.00</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer PayNow Transfer To: klaudine OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S$25.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S$274.47</t>
+          <t>S$179.47</t>
         </is>
       </c>
     </row>
@@ -728,33 +728,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04 Sep 2022</t>
+          <t>03 Dec 2022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 02DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S$7.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$196.97</t>
         </is>
       </c>
     </row>
@@ -764,33 +764,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06 Sep 2022</t>
+          <t>05 Dec 2022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GRAB* A-3TM6MHFWWGBJ SI NG 03SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>S$15.80</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>S$188.67</t>
+          <t>S$284.47</t>
         </is>
       </c>
     </row>
@@ -800,33 +800,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>06 Sep 2022</t>
+          <t>06 Dec 2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 4705027From: TAMMY GOH TIAN HUI OTHR Other</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>S$13.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GRAB* A-49CMS4JWWJQO SI NG 03DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S$17.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S$217.47</t>
+          <t>S$187.47</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12 Sep 2022</t>
+          <t>06 Dec 2022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -851,18 +851,18 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 9409238From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>S$80.00</t>
+          <t>S$15.90</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$220.37</t>
         </is>
       </c>
     </row>
@@ -872,33 +872,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14 Sep 2022</t>
+          <t>06 Dec 2022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK 90 10 12SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>S$17.80</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 9416410From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>S$2.80</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S$186.67</t>
+          <t>S$207.27</t>
         </is>
       </c>
     </row>
@@ -908,33 +908,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14 Sep 2022</t>
+          <t>07 Dec 2022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 5170545From: ERVIN WONG (HUANG QIHAN) OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>S$48.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 05DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S$252.47</t>
+          <t>S$197.27</t>
         </is>
       </c>
     </row>
@@ -944,33 +944,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15 Sep 2022</t>
+          <t>08 Dec 2022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 7953685From: GOH WOON KAI OTHR Other</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction IPPUDO - WEST GATE SI NG 06DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S$89.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S$214.47</t>
+          <t>S$114.55</t>
         </is>
       </c>
     </row>
@@ -980,33 +980,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16 Sep 2022</t>
+          <t>10 Dec 2022</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Debit Card Transaction BLACK TAP SI NG 14SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>S$104.75</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S$34.60</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S$99.72</t>
+          <t>S$239.07</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16 Sep 2022</t>
+          <t>11 Dec 2022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1031,18 +1031,18 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Debit Card Transaction MR COCONUT-PLQ SI NG 14SEP 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction HOSHINO COFFEE SI NG 10DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>S$13.20</t>
+          <t>S$53.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S$191.27</t>
+          <t>S$151.47</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19 Sep 2022</t>
+          <t>12 Dec 2022</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1073,12 +1073,12 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S$63.00</t>
+          <t>S$80.00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>S$267.47</t>
+          <t>S$284.47</t>
         </is>
       </c>
     </row>
@@ -1088,33 +1088,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21 Sep 2022</t>
+          <t>12 Dec 2022</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Point-Of-Sale</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK SI NG 17SEP 4628-4500-4337-5097</t>
+          <t>Point-of-Sale Transaction 43375097,RPG-INT PTE LTD NETS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>S$19.60</t>
+          <t>S$49.90</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S$184.87</t>
+          <t>S$154.57</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23 Sep 2022</t>
+          <t>13 Dec 2022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1139,18 +1139,18 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GRAB* A-4WWBVHFWWGAU SI NG 21SEP 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction PHOON HUAT PTE LTD SI NG 10DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S$15.70</t>
+          <t>S$31.88</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S$188.77</t>
+          <t>S$172.59</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24 Sep 2022</t>
+          <t>13 Dec 2022</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1175,18 +1175,18 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK SI NG 21SEP 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction DELIVEROO SI NG 11DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>S$17.30</t>
+          <t>S$20.29</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S$187.17</t>
+          <t>S$184.18</t>
         </is>
       </c>
     </row>
@@ -1196,33 +1196,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>26 Sep 2022</t>
+          <t>15 Dec 2022</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 12DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S$5.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$198.74</t>
         </is>
       </c>
     </row>
@@ -1232,33 +1232,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26 Sep 2022</t>
+          <t>15 Dec 2022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK N OV 13DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>S$110.00</t>
+          <t>S$1.86</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>S$314.47</t>
+          <t>S$206.33</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28 Sep 2022</t>
+          <t>17 Dec 2022</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1283,18 +1283,18 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Debit Card Transaction CARLTON HOTEL (S) PL SI NG 26SEP 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 13DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>S$40.30</t>
+          <t>S$11.35</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S$164.17</t>
+          <t>S$193.12</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28 Sep 2022</t>
+          <t>17 Dec 2022</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1319,18 +1319,18 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Debit Card Transaction JASONS MARKET PLACE-RA SI NG 26SEP 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GRAB* A-4AT3926GWE4O SI NG 14DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S$39.80</t>
+          <t>S$43.80</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S$164.67</t>
+          <t>S$160.67</t>
         </is>
       </c>
     </row>
@@ -1340,33 +1340,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29 Sep 2022</t>
+          <t>20 Dec 2022</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Debit Card Transaction THE SOUP SPOON PL - UN SI NG 26SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>S$67.20</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>S$137.27</t>
+          <t>S$334.47</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29 Sep 2022</t>
+          <t>25 Dec 2022</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1391,18 +1391,18 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK SI NG 26SEP 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 22DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>S$15.00</t>
+          <t>S$25.35</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S$189.47</t>
+          <t>S$179.12</t>
         </is>
       </c>
     </row>
@@ -1412,33 +1412,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>30 Sep 2022</t>
+          <t>25 Dec 2022</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>S$0.02</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK SI NG 22DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S$204.49</t>
+          <t>S$197.27</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01 Oct 2022</t>
+          <t>25 Dec 2022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1463,18 +1463,18 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Debit Card Transaction SINGPOST - SAM KIOSK SI NG 29SEP 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GRAB* A-4CWTSEBWWJUQ SI NG 23DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>S$0.60</t>
+          <t>S$17.55</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S$203.87</t>
+          <t>S$186.92</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>02 Oct 2022</t>
+          <t>25 Dec 2022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1499,18 +1499,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Debit Card Transaction HAI DI LAO - PLAZA SIN SI NG 29SEP 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction BOOST JUICE RCS SI NG 24DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>S$43.00</t>
+          <t>S$5.90</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S$161.47</t>
+          <t>S$198.57</t>
         </is>
       </c>
     </row>
@@ -1520,33 +1520,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>02 Oct 2022</t>
+          <t>25 Dec 2022</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK 90 10 30SEP 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>S$17.80</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S$186.67</t>
+          <t>S$334.47</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>03 Oct 2022</t>
+          <t>26 Dec 2022</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1571,18 +1571,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>S$80.00</t>
+          <t>S$100.00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$304.47</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>04 Oct 2022</t>
+          <t>28 Dec 2022</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1607,18 +1607,18 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Debit Card Transaction BOOST JUICE PAYA LEBAR SI NG 02OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction BUILDER AT SIMS SI NG 25DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>S$11.00</t>
+          <t>S$48.90</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S$193.47</t>
+          <t>S$155.57</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>05 Oct 2022</t>
+          <t>28 Dec 2022</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1643,18 +1643,18 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 01OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GOJEK 90 10 23DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>S$18.30</t>
+          <t>S$34.70</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>S$186.17</t>
+          <t>S$169.77</t>
         </is>
       </c>
     </row>
@@ -1664,33 +1664,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05 Oct 2022</t>
+          <t>28 Dec 2022</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>S$35.42</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction IPPUDO - RAFFLES CITY SI NG 24DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>S$69.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>S$239.89</t>
+          <t>S$134.61</t>
         </is>
       </c>
     </row>
@@ -1700,33 +1700,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06 Oct 2022</t>
+          <t>31 Dec 2022</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 9742941From: TANG YEW THONG OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>S$12.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 29DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>S$5.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>S$216.47</t>
+          <t>S$198.97</t>
         </is>
       </c>
     </row>
@@ -1736,33 +1736,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07 Oct 2022</t>
+          <t>31 Dec 2022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 04OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>S$36.42</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>S$14.00</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S$168.05</t>
+          <t>S$218.47</t>
         </is>
       </c>
     </row>
@@ -1772,33 +1772,33 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08 Oct 2022</t>
+          <t>31 Dec 2022</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>S$23.80</t>
+          <t>S$0.01</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>S$228.27</t>
+          <t>S$204.48</t>
         </is>
       </c>
     </row>
@@ -1808,33 +1808,33 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>09 Oct 2022</t>
+          <t>01 Jan 2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 8067305From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>S$112.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 30DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>S$14.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>S$316.47</t>
+          <t>S$190.47</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09 Oct 2022</t>
+          <t>02 Jan 2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1859,18 +1859,18 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PayNow Transfer To: klaudine OTHR PayNow Transfer @yyannnnn</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>S$56.00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>S$148.47</t>
+          <t>S$284.47</t>
         </is>
       </c>
     </row>
@@ -1880,12 +1880,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10 Oct 2022</t>
+          <t>02 Jan 2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1895,18 +1895,18 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 5364842From: ASON ANG CHEE KAY OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>S$80.00</t>
+          <t>S$54.10</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$258.57</t>
         </is>
       </c>
     </row>
@@ -1916,33 +1916,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11 Oct 2022</t>
+          <t>03 Jan 2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Debit Card Transaction DECKER BARBECUE PTE LT SI NG 08OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>S$112.99</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7172069From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>S$54.00</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>S$91.48</t>
+          <t>S$258.47</t>
         </is>
       </c>
     </row>
@@ -1952,33 +1952,33 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11 Oct 2022</t>
+          <t>03 Jan 2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK 90 10 09OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>S$22.50</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7582094From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>S$42.00</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S$181.97</t>
+          <t>S$246.47</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11 Oct 2022</t>
+          <t>04 Jan 2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2003,18 +2003,18 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 08OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction BOOST JUICE ION SI NG 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>S$23.80</t>
+          <t>S$5.30</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>S$180.67</t>
+          <t>S$199.17</t>
         </is>
       </c>
     </row>
@@ -2024,33 +2024,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11 Oct 2022</t>
+          <t>04 Jan 2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 7079721From: SIANG HIE OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>S$27.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>S$17.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>S$231.47</t>
+          <t>S$186.77</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12 Oct 2022</t>
+          <t>05 Jan 2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2075,18 +2075,18 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Debit Card Transaction SINGPOST - SAM KIOSK SI NG 10OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>S$0.30</t>
+          <t>S$42.65</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>S$204.17</t>
+          <t>S$161.82</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12 Oct 2022</t>
+          <t>05 Jan 2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2111,18 +2111,18 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Debit Card Transaction SINGPOST - SAM KIOSK SI NG 10OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GUO FU SI NG 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>S$0.30</t>
+          <t>S$167.98</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>S$204.17</t>
+          <t>S$36.49</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13 Oct 2022</t>
+          <t>05 Jan 2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2147,18 +2147,18 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 10OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GOJEK SI NG 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>S$4.10</t>
+          <t>S$24.20</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>S$200.37</t>
+          <t>S$180.27</t>
         </is>
       </c>
     </row>
@@ -2168,33 +2168,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13 Oct 2022</t>
+          <t>05 Jan 2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK 90 10 11OCT 4628-4500-4337-5097</t>
+          <t>FAST / PayNow Transfer PayNow Transfer To: NIMMAGADDA VINEESH OTHR PayNow Transfer slayyy</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>S$16.60</t>
+          <t>S$27.00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>S$187.87</t>
+          <t>S$177.47</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14 Oct 2022</t>
+          <t>06 Jan 2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2219,18 +2219,18 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 6774237From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>S$22.37</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer PayNow Transfer To: HEARTLANDS OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>S$16.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>S$226.84</t>
+          <t>S$188.47</t>
         </is>
       </c>
     </row>
@@ -2240,33 +2240,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14 Oct 2022</t>
+          <t>07 Jan 2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 0366075From: ASON ANG CHEE KAY OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>S$22.36</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 06JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>S$226.83</t>
+          <t>S$202.97</t>
         </is>
       </c>
     </row>
@@ -2276,33 +2276,33 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15 Oct 2022</t>
+          <t>07 Jan 2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Debit Card Transaction SINGPOST - SAM KIOSK SI NG 13OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>S$0.30</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>S$44.00</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>S$204.17</t>
+          <t>S$248.47</t>
         </is>
       </c>
     </row>
@@ -2312,12 +2312,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15 Oct 2022</t>
+          <t>08 Jan 2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2327,18 +2327,18 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PayNow Transfer To: klaudine OTHR PayNow Transfer @yyannnnn</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>S$20.00</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>S$184.47</t>
+          <t>S$284.47</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16 Oct 2022</t>
+          <t>10 Jan 2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2363,18 +2363,18 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Debit Card Transaction WWW.AMUSEPROJECTS.COM SI NG 14OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GOJEK 90 10 08JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>S$52.00</t>
+          <t>S$20.90</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>S$152.47</t>
+          <t>S$183.57</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16 Oct 2022</t>
+          <t>11 Jan 2023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2399,18 +2399,18 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Debit Card Transaction SP BOXGREEN PTE. LTD SI NG 14OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction PIZZAKAYA-JEM SI NG 09JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>S$37.45</t>
+          <t>S$68.19</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>S$167.02</t>
+          <t>S$136.28</t>
         </is>
       </c>
     </row>
@@ -2420,33 +2420,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16 Oct 2022</t>
+          <t>11 Jan 2023</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK SI NG 07JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>S$28.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$176.37</t>
         </is>
       </c>
     </row>
@@ -2456,33 +2456,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17 Oct 2022</t>
+          <t>12 Jan 2023</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Funds Transfer 001-105047-0 : I-BANK</t>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 09JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>S$200.00</t>
+          <t>S$5.85</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>S$4.47</t>
+          <t>S$198.62</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>18 Oct 2022</t>
+          <t>12 Jan 2023</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2507,18 +2507,18 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 17OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction SHABURI &amp; KINTAN BUFFE SI NG 10JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>S$1.40</t>
+          <t>S$32.79</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>S$203.07</t>
+          <t>S$171.68</t>
         </is>
       </c>
     </row>
@@ -2528,33 +2528,33 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>18 Oct 2022</t>
+          <t>13 Jan 2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 1937627From: ONG LAY HONG OTHR Other</t>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK D EC 11JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>S$212.40</t>
+          <t>S$4.76</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>S$416.87</t>
+          <t>S$209.23</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>19 Oct 2022</t>
+          <t>15 Jan 2023</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2579,18 +2579,18 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 18OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GRAB* A-4ENEVT9GWJQG SI NG 13JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>S$23.80</t>
+          <t>S$34.80</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>S$180.67</t>
+          <t>S$169.67</t>
         </is>
       </c>
     </row>
@@ -2600,33 +2600,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20 Oct 2022</t>
+          <t>16 Jan 2023</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK SI NG 17OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>S$12.40</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>S$192.07</t>
+          <t>S$284.47</t>
         </is>
       </c>
     </row>
@@ -2636,33 +2636,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21 Oct 2022</t>
+          <t>16 Jan 2023</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 20OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>S$1.50</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>S$202.97</t>
+          <t>S$404.47</t>
         </is>
       </c>
     </row>
@@ -2672,33 +2672,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21 Oct 2022</t>
+          <t>16 Jan 2023</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 20OCT 4628-4500-4337-5097</t>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859247</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>S$3.50</t>
+          <t>S$10.00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>S$200.97</t>
+          <t>S$194.47</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>21 Oct 2022</t>
+          <t>16 Jan 2023</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2723,18 +2723,18 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 6924020From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>S$22.36</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859251</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>S$226.83</t>
+          <t>S$104.47</t>
         </is>
       </c>
     </row>
@@ -2744,33 +2744,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>23 Oct 2022</t>
+          <t>16 Jan 2023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GRAB* A-43T9LAGWWEC3 SI NG 21OCT 4628-4500-4337-5097</t>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>S$21.80</t>
+          <t>S$90.00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>S$182.67</t>
+          <t>S$114.47</t>
         </is>
       </c>
     </row>
@@ -2780,33 +2780,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>27 Oct 2022</t>
+          <t>17 Jan 2023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PayNow Transfer To: Vineesh OTHR PayNow Transfer</t>
+          <t>Debit Card Transaction MCDONALD'S (SP2) SI NG 12JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>S$5.50</t>
+          <t>S$10.55</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>S$198.97</t>
+          <t>S$193.92</t>
         </is>
       </c>
     </row>
@@ -2816,33 +2816,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>27 Oct 2022</t>
+          <t>17 Jan 2023</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Point-Of-Sale</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Point-of-Sale Transaction 43375097,KOI THE SINGAPORE PTE LTD NETS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>S$7.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$196.97</t>
         </is>
       </c>
     </row>
@@ -2852,33 +2852,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>28 Oct 2022</t>
+          <t>17 Jan 2023</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Debit Card Transaction BOOST JUICE PAYA LEBAR SI NG 27OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>S$5.50</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>S$300.00</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>S$198.97</t>
+          <t>S$504.47</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2888,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>31 Oct 2022</t>
+          <t>18 Jan 2023</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2903,18 +2903,18 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008862432</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$4.47</t>
         </is>
       </c>
     </row>
@@ -2924,33 +2924,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31 Oct 2022</t>
+          <t>18 Jan 2023</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>S$0.02</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction LA SENZA SI NG 17JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>S$55.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>S$204.49</t>
+          <t>S$149.27</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>02 Nov 2022</t>
+          <t>18 Jan 2023</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2975,18 +2975,18 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Debit Card Transaction SHOPEE SINGAPORE MP SI NG 28OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 16JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>S$12.73</t>
+          <t>S$3.60</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>S$191.74</t>
+          <t>S$200.87</t>
         </is>
       </c>
     </row>
@@ -2996,33 +2996,33 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>02 Nov 2022</t>
+          <t>18 Jan 2023</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GUARDIAN- PAYA LEBAR Q SI NG 31OCT 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>S$11.99</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>S$192.48</t>
+          <t>S$404.47</t>
         </is>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>02 Nov 2022</t>
+          <t>19 Jan 2023</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3047,18 +3047,18 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 01NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction ABURI EN@JEM SI NG 16JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>S$1.50</t>
+          <t>S$49.78</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>S$202.97</t>
+          <t>S$154.69</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>02 Nov 2022</t>
+          <t>19 Jan 2023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3083,18 +3083,18 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 01NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* I2KP0MI HT TP 17JAN 4628-4500-4337-5097 USD10.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>S$3.90</t>
+          <t>S$13.66</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>S$200.57</t>
+          <t>S$190.81</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>02 Nov 2022</t>
+          <t>20 Jan 2023</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3119,18 +3119,18 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 01NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction FAIRPRICE XTRA - JEM SI NG 16JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>S$22.95</t>
+          <t>S$3.88</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>S$181.52</t>
+          <t>S$200.59</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>03 Nov 2022</t>
+          <t>20 Jan 2023</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3155,18 +3155,18 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Debit Card Transaction LENU (CHEF WAI'S NOODL SI NG 31OCT 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>S$37.08</t>
+          <t>S$3.00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>S$167.39</t>
+          <t>S$201.47</t>
         </is>
       </c>
     </row>
@@ -3176,33 +3176,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>03 Nov 2022</t>
+          <t>20 Jan 2023</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PayNow Transfer To: Vineesh OTHR PayNow Transfer</t>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>S$10.20</t>
+          <t>S$22.95</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>S$194.27</t>
+          <t>S$181.52</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06 Nov 2022</t>
+          <t>20 Jan 2023</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3227,18 +3227,18 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Debit Card Transaction MR COCONUT-PLQ SI NG 04NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* 5QK143T HT TP 19JAN 4628-4500-4337-5097 USD40.00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>S$8.80</t>
+          <t>S$54.75</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>S$195.67</t>
+          <t>S$149.72</t>
         </is>
       </c>
     </row>
@@ -3248,33 +3248,33 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>07 Nov 2022</t>
+          <t>21 Jan 2023</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 0492548From: ONG LAY HONG OTHR Other</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 20JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>S$15.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$189.47</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08 Nov 2022</t>
+          <t>21 Jan 2023</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3299,18 +3299,18 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 07NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction KOPITIAM @ PAYA LEBAR SI NG 20JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>S$2.90</t>
+          <t>S$2.20</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>S$201.57</t>
+          <t>S$202.27</t>
         </is>
       </c>
     </row>
@@ -3320,33 +3320,33 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>09 Nov 2022</t>
+          <t>23 Jan 2023</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Debit Card Transaction WING JOO LOONG-PAYA LE SI NG 07NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>S$4.00</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>S$20.00</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>S$200.47</t>
+          <t>S$224.47</t>
         </is>
       </c>
     </row>
@@ -3356,33 +3356,33 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>09 Nov 2022</t>
+          <t>23 Jan 2023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Debit Card Transaction OLD CHANG KEE SI NG 08NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>S$5.90</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>S$198.57</t>
+          <t>S$334.47</t>
         </is>
       </c>
     </row>
@@ -3392,33 +3392,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>09 Nov 2022</t>
+          <t>26 Jan 2023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Point-Of-Sale</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Debit Card Transaction NIPONG NAEPONG SI NG 07NOV 4628-4500-4337-5097</t>
+          <t>Point-of-Sale Transaction 43375097,MR BEAN NETS</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>S$49.20</t>
+          <t>S$1.90</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>S$155.27</t>
+          <t>S$202.57</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10 Nov 2022</t>
+          <t>28 Jan 2023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3443,18 +3443,18 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Debit Card Transaction RAMEN HITOYOSHI-JEM SI NG 08NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>S$6.90</t>
+          <t>S$1.50</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>S$197.57</t>
+          <t>S$202.97</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10 Nov 2022</t>
+          <t>28 Jan 2023</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3479,18 +3479,18 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Debit Card Transaction AUNTIE ANNE'S - JEM SI NG 08NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>S$3.60</t>
+          <t>S$17.90</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>S$200.87</t>
+          <t>S$186.57</t>
         </is>
       </c>
     </row>
@@ -3500,12 +3500,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10 Nov 2022</t>
+          <t>29 Jan 2023</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3515,18 +3515,18 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PayNow Transfer To: Vineesh OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>S$16.10</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>S$188.37</t>
+          <t>S$284.47</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>11 Nov 2022</t>
+          <t>29 Jan 2023</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3551,18 +3551,18 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Debit Card Transaction AJIFUKO SI NG 08NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* O9UCR62 HT TP 27JAN 4628-4500-4337-5097 USD50.00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>S$10.80</t>
+          <t>S$67.87</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>S$193.67</t>
+          <t>S$136.6</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>12 Nov 2022</t>
+          <t>31 Jan 2023</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3587,18 +3587,18 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Debit Card Transaction WURSTHANS SI NG 11NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction ICE LAB SI NG 30JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>S$35.80</t>
+          <t>S$18.00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>S$168.67</t>
+          <t>S$186.47</t>
         </is>
       </c>
     </row>
@@ -3608,33 +3608,33 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>14 Nov 2022</t>
+          <t>31 Jan 2023</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 3171600From: ONG LAY HONG OTHR Other</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>S$90.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction BOOST JUICE JEM SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>S$11.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>S$294.47</t>
+          <t>S$193.47</t>
         </is>
       </c>
     </row>
@@ -3644,33 +3644,33 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>15 Nov 2022</t>
+          <t>31 Jan 2023</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 14NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>S$21.10</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>S$183.37</t>
+          <t>S$204.48</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>15 Nov 2022</t>
+          <t>01 Feb 2023</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3695,18 +3695,18 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 14NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>S$2.90</t>
+          <t>S$1.50</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>S$201.57</t>
+          <t>S$202.97</t>
         </is>
       </c>
     </row>
@@ -3716,33 +3716,33 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>15 Nov 2022</t>
+          <t>01 Feb 2023</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PayNow Transfer To: Qeen OTHR PayNow Transfer</t>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>S$60.28</t>
+          <t>S$23.80</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>S$144.19</t>
+          <t>S$180.67</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16 Nov 2022</t>
+          <t>01 Feb 2023</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3767,18 +3767,18 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Debit Card Transaction BOOST JUICE PAYA LEBAR SI NG 15NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S$5.90</t>
+          <t>S$4.10</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>S$198.57</t>
+          <t>S$200.37</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>17 Nov 2022</t>
+          <t>02 Feb 2023</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3803,18 +3803,18 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Debit Card Transaction NTUC FP - SINGPOST SI NG 14NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction NIPONG NAEPONG SI NG 30JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>S$3.65</t>
+          <t>S$48.47</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>S$200.82</t>
+          <t>S$156.0</t>
         </is>
       </c>
     </row>
@@ -3824,33 +3824,33 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>18 Nov 2022</t>
+          <t>03 Feb 2023</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Incoming PayNow Ref 8012633From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>S$35.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction VAST.AI* 5FZDXGW HT TP 01FEB 4628-4500-4337-5097 USD30.00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>S$40.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>S$239.47</t>
+          <t>S$163.63</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>20 Nov 2022</t>
+          <t>04 Feb 2023</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3875,18 +3875,18 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Debit Card Transaction COLLIN'S - WESTGAE SI NG 17NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GOJEK SI NG 01FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S$100.05</t>
+          <t>S$20.50</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>S$104.42</t>
+          <t>S$183.97</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>20 Nov 2022</t>
+          <t>04 Feb 2023</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3911,18 +3911,18 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Debit Card Transaction SUKIYA@313 SI NG 18NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* SHBNCWO HT TP 03FEB 4628-4500-4337-5097 USD20.00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>S$35.90</t>
+          <t>S$27.08</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>S$168.57</t>
+          <t>S$177.39</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>21 Nov 2022</t>
+          <t>04 Feb 2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3947,18 +3947,18 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>S$80.00</t>
+          <t>S$200.00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$404.47</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>22 Nov 2022</t>
+          <t>05 Feb 2023</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3983,18 +3983,18 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK SI NG 18NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* IU1HJJZ HT TP 03FEB 4628-4500-4337-5097 USD50.00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>S$13.80</t>
+          <t>S$67.72</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>S$190.67</t>
+          <t>S$136.75</t>
         </is>
       </c>
     </row>
@@ -4004,33 +4004,33 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>22 Nov 2022</t>
+          <t>05 Feb 2023</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 21NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>S$2.90</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>S$201.57</t>
+          <t>S$284.47</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>23 Nov 2022</t>
+          <t>07 Feb 2023</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4055,18 +4055,18 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Debit Card Transaction DIN TAI FUNG-JEM SI NG 21NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* HSPFHZ5 HT TP 04FEB 4628-4500-4337-5097 USD50.00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>S$57.20</t>
+          <t>S$68.35</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>S$147.27</t>
+          <t>S$136.12</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>23 Nov 2022</t>
+          <t>07 Feb 2023</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4091,18 +4091,18 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Debit Card Transaction NET*NETSMM SI NG 21NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* C9W45F2 HT TP 05FEB 4628-4500-4337-5097 USD20.00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S$7.20</t>
+          <t>S$27.34</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>S$197.27</t>
+          <t>S$177.13</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>25 Nov 2022</t>
+          <t>07 Feb 2023</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4127,18 +4127,18 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 24NOV 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 04FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>S$23.30</t>
+          <t>S$5.50</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>S$181.17</t>
+          <t>S$198.97</t>
         </is>
       </c>
     </row>
@@ -4148,33 +4148,33 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>25 Nov 2022</t>
+          <t>08 Feb 2023</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction 43375097,CANOPY COFFEE CLUB NETS</t>
+          <t>Debit Card Transaction GENKI SUSHI-WESTGATE SI NG 06FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>S$1.20</t>
+          <t>S$45.62</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>S$203.27</t>
+          <t>S$158.85</t>
         </is>
       </c>
     </row>
@@ -4184,31 +4184,4711 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>26 Nov 2022</t>
+          <t>08 Feb 2023</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction 43375097,JOLLIBEE NETS</t>
+          <t>Debit Card Transaction GRAB* A-4HPVK7XWWFXM SI NG 06FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>S$23.25</t>
+          <t>S$33.25</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
+        <is>
+          <t>S$171.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>09 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer OCBC:717525968001:I-BANK funds transfer OTHR 102286746100</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>S$10.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>S$194.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>10 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: DING MINGZHONG OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>S$18.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>S$186.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>11 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 08FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>S$5.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>S$198.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>12 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4I92CJEGWGTH SI NG 10FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>S$19.80</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>S$184.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>12 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>S$304.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>14 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4IDC5CCWWGTH SI NG 11FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>S$22.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>S$181.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>14 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 13FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>S$6.30</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>S$198.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>18 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>19 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>S$43.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>S$160.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>19 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>S$4.65</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>S$199.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>19 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>S$197.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>21 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB SI NG 18FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>S$19.10</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>S$185.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>21 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 19FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>S$19.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>S$185.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>28 Nov 2022</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 3946391From: ONG LAY HONG OTHR Transfer - Mobile</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>29 Nov 2022</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 25NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>S$21.75</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>S$182.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>29 Nov 2022</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 26NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>S$19.40</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>S$185.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>29 Nov 2022</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 27NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>S$28.70</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>S$175.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>30 Nov 2022</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 28NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>S$43.20</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>S$161.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>30 Nov 2022</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>S$0.02</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>S$204.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>03 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: klaudine OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>S$25.00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>S$179.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>03 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 02DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>S$7.50</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>S$196.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>05 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>06 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-49CMS4JWWJQO SI NG 03DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>S$17.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>S$187.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>06 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 9409238From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>S$15.90</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>S$220.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>06 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 9416410From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>S$2.80</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>S$207.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>07 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 05DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>S$197.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>08 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction IPPUDO - WEST GATE SI NG 06DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>S$89.92</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>S$114.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>10 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>S$34.60</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>S$239.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>11 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction HOSHINO COFFEE SI NG 10DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>S$53.00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>S$151.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>12 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>12 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction 43375097,RPG-INT PTE LTD NETS</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>S$49.90</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>S$154.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>13 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PHOON HUAT PTE LTD SI NG 10DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>S$31.88</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>S$172.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>13 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction DELIVEROO SI NG 11DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>S$20.29</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>S$184.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>15 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 12DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>S$5.73</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>S$198.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>15 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK N OV 13DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>S$1.86</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>S$206.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>17 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 13DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>S$11.35</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>S$193.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>17 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4AT3926GWE4O SI NG 14DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>S$43.80</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>S$160.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>20 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>S$334.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>25 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 22DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>S$25.35</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>S$179.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>25 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 22DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>S$197.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>25 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4CWTSEBWWJUQ SI NG 23DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>S$17.55</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>S$186.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>25 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BOOST JUICE RCS SI NG 24DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>S$5.90</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>S$198.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>25 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>S$334.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>26 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>S$304.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>28 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BUILDER AT SIMS SI NG 25DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>S$48.90</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>S$155.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>28 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 23DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>S$34.70</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>S$169.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>28 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction IPPUDO - RAFFLES CITY SI NG 24DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>S$69.86</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>S$134.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>31 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 29DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>S$5.50</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>S$198.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>31 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>S$14.00</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>S$218.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>31 Dec 2022</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>S$204.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>01 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 30DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>S$14.00</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>S$190.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>02 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>02 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 5364842From: ASON ANG CHEE KAY OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>S$54.10</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>S$258.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>03 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7172069From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>S$54.00</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>S$258.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>03 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7582094From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>S$42.00</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>S$246.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>04 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BOOST JUICE ION SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>S$5.30</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>S$199.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>04 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>S$17.70</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>S$186.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>05 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>S$42.65</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>S$161.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>05 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GUO FU SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>S$167.98</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>S$36.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>05 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>S$24.20</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>S$180.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>05 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: NIMMAGADDA VINEESH OTHR PayNow Transfer slayyy</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>S$27.00</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>S$177.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>06 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: HEARTLANDS OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>S$16.00</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>S$188.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>07 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 06JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>S$202.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>07 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>S$44.00</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>S$248.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>08 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>10 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 08JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>S$20.90</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>S$183.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>11 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PIZZAKAYA-JEM SI NG 09JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>S$68.19</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>S$136.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>11 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 07JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>S$28.10</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>S$176.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>12 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 09JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>S$5.85</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>S$198.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>12 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction SHABURI &amp; KINTAN BUFFE SI NG 10JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>S$32.79</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>S$171.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>13 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK D EC 11JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>S$4.76</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>S$209.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>15 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4ENEVT9GWJQG SI NG 13JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>S$34.80</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>S$169.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>16 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>S$404.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>16 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859247</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>S$10.00</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>S$194.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>16 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859251</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>S$104.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>16 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>S$90.00</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>S$114.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>17 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MCDONALD'S (SP2) SI NG 12JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>S$10.55</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>S$193.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>17 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction 43375097,KOI THE SINGAPORE PTE LTD NETS</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>S$7.50</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>S$196.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>17 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>S$300.00</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>S$504.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>18 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008862432</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>S$4.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>18 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction LA SENZA SI NG 17JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>S$55.20</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>S$149.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>18 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>S$3.60</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>S$200.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>18 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>S$404.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>19 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ABURI EN@JEM SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>S$49.78</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>S$154.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>19 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* I2KP0MI HT TP 17JAN 4628-4500-4337-5097 USD10.00</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>S$13.66</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>S$190.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>20 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FAIRPRICE XTRA - JEM SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>S$3.88</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>S$200.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>20 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>S$3.00</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>S$201.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>20 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>S$22.95</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>S$181.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>20 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* 5QK143T HT TP 19JAN 4628-4500-4337-5097 USD40.00</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>S$54.75</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>S$149.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>21 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 20JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>S$15.00</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>S$189.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>21 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOPITIAM @ PAYA LEBAR SI NG 20JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>S$2.20</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>S$202.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>23 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>S$20.00</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>S$224.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>23 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>S$334.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>26 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction 43375097,MR BEAN NETS</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>S$1.90</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>S$202.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>28 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>S$202.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>28 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>S$17.90</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>S$186.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>29 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>29 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* O9UCR62 HT TP 27JAN 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>S$67.87</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>S$136.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>31 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ICE LAB SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>S$18.00</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>S$186.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>31 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BOOST JUICE JEM SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>S$11.00</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>S$193.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>31 Jan 2023</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>S$204.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>01 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>S$202.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>01 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>S$23.80</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>S$180.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>01 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>S$4.10</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>S$200.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>02 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction NIPONG NAEPONG SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>S$48.47</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>S$156.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>03 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* 5FZDXGW HT TP 01FEB 4628-4500-4337-5097 USD30.00</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>S$40.84</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>S$163.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>04 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 01FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>S$20.50</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>S$183.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>04 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* SHBNCWO HT TP 03FEB 4628-4500-4337-5097 USD20.00</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>S$27.08</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>S$177.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>04 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>S$404.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>05 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* IU1HJJZ HT TP 03FEB 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>S$67.72</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>S$136.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>05 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>07 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* HSPFHZ5 HT TP 04FEB 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>S$68.35</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>S$136.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>07 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* C9W45F2 HT TP 05FEB 4628-4500-4337-5097 USD20.00</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>S$27.34</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>S$177.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>07 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 04FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>S$5.50</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>S$198.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>08 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GENKI SUSHI-WESTGATE SI NG 06FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>S$45.62</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>S$158.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>08 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4HPVK7XWWFXM SI NG 06FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>S$33.25</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>S$171.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>09 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer OCBC:717525968001:I-BANK funds transfer OTHR 102286746100</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>S$10.00</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>S$194.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>10 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: DING MINGZHONG OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>S$18.00</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>S$186.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>11 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 08FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>S$5.84</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>S$198.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>12 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4I92CJEGWGTH SI NG 10FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>S$19.80</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>S$184.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>12 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>S$304.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>14 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4IDC5CCWWGTH SI NG 11FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>S$22.90</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>S$181.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>14 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 13FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>S$6.30</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>S$198.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>18 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>S$284.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>19 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>S$43.60</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>S$160.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>19 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>S$4.65</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>S$199.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>19 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>S$197.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>21 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB SI NG 18FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>S$19.10</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>S$185.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>21 Feb 2023</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 19FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>S$19.00</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
         <is>
           <t>S$204.47</t>
         </is>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4678,4218 +4678,6 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>S$185.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>28 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 3946391From: ONG LAY HONG OTHR Transfer - Mobile</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>29 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 25NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>S$21.75</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>S$182.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>29 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 26NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>S$19.40</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>S$185.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>29 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 27NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>S$28.70</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>S$175.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>30 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 28NOV 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>S$43.20</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>S$161.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>30 Nov 2022</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>S$0.02</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>S$204.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>03 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: klaudine OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>S$25.00</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>S$179.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>03 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 02DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>S$7.50</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>S$196.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>05 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>06 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-49CMS4JWWJQO SI NG 03DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>S$17.00</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>S$187.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>06 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 9409238From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>S$15.90</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>S$220.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>06 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 9416410From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>S$2.80</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>S$207.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>07 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 05DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>S$7.20</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>S$197.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>08 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction IPPUDO - WEST GATE SI NG 06DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>S$89.92</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>S$114.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>10 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>S$34.60</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>S$239.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>11 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction HOSHINO COFFEE SI NG 10DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>S$53.00</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>S$151.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>12 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>12 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>POS</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Point-Of-Sale</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Point-of-Sale Transaction 43375097,RPG-INT PTE LTD NETS</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>S$49.90</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>S$154.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>13 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction PHOON HUAT PTE LTD SI NG 10DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>S$31.88</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>S$172.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>13 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction DELIVEROO SI NG 11DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>S$20.29</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>S$184.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>15 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 12DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>S$5.73</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>S$198.74</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>15 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK N OV 13DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>S$1.86</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>S$206.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>17 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 13DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>S$11.35</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>S$193.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>17 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-4AT3926GWE4O SI NG 14DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>S$43.80</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>S$160.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>20 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>S$130.00</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>S$334.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 22DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>S$25.35</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>S$179.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 22DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>S$7.20</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>S$197.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-4CWTSEBWWJUQ SI NG 23DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>S$17.55</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>S$186.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BOOST JUICE RCS SI NG 24DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>S$5.90</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>S$198.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>S$130.00</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>S$334.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>26 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>S$100.00</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>S$304.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>28 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BUILDER AT SIMS SI NG 25DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>S$48.90</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>S$155.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>28 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 23DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>S$34.70</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>S$169.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>28 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction IPPUDO - RAFFLES CITY SI NG 24DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>S$69.86</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>S$134.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>31 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 29DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>S$5.50</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>S$198.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>31 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>S$14.00</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>S$218.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>31 Dec 2022</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>S$0.01</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>S$204.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>01 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 30DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>S$14.00</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>S$190.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>02 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>02 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 5364842From: ASON ANG CHEE KAY OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>S$54.10</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>S$258.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>03 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 7172069From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>S$54.00</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>S$258.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>03 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 7582094From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>S$42.00</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>S$246.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>04 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BOOST JUICE ION SI NG 02JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>S$5.30</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>S$199.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>04 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 02JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>S$17.70</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>S$186.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>05 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 02JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>S$42.65</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>S$161.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>05 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GUO FU SI NG 02JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>S$167.98</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>S$36.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>05 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 02JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>S$24.20</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>S$180.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>05 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: NIMMAGADDA VINEESH OTHR PayNow Transfer slayyy</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>S$27.00</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>S$177.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>06 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: HEARTLANDS OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>S$16.00</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>S$188.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>07 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 06JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>S$1.50</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>S$202.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>07 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>S$44.00</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>S$248.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>08 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>10 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 08JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>S$20.90</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>S$183.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>11 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction PIZZAKAYA-JEM SI NG 09JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>S$68.19</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>S$136.28</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>11 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 07JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>S$28.10</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>S$176.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>12 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 09JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>S$5.85</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>S$198.62</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>12 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction SHABURI &amp; KINTAN BUFFE SI NG 10JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>S$32.79</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>S$171.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>13 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK D EC 11JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>S$4.76</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>S$209.23</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>15 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-4ENEVT9GWJQG SI NG 13JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>S$34.80</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>S$169.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>S$200.00</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>S$404.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859247</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>S$194.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859251</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>S$100.00</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>S$104.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>S$90.00</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>S$114.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>17 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction MCDONALD'S (SP2) SI NG 12JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>S$10.55</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>S$193.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>17 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>POS</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Point-Of-Sale</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Point-of-Sale Transaction 43375097,KOI THE SINGAPORE PTE LTD NETS</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>S$7.50</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>S$196.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>17 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>S$300.00</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>S$504.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>18 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008862432</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>S$200.00</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>S$4.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>18 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction LA SENZA SI NG 17JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>S$55.20</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>S$149.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>18 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 16JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>S$3.60</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>S$200.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>18 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>S$200.00</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>S$404.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>19 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction ABURI EN@JEM SI NG 16JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>S$49.78</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>S$154.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>19 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction VAST.AI* I2KP0MI HT TP 17JAN 4628-4500-4337-5097 USD10.00</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>S$13.66</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>S$190.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>20 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction FAIRPRICE XTRA - JEM SI NG 16JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>S$3.88</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>S$200.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>20 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>S$3.00</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>S$201.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>20 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>S$22.95</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>S$181.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>20 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction VAST.AI* 5QK143T HT TP 19JAN 4628-4500-4337-5097 USD40.00</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>S$54.75</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>S$149.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>21 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 20JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>S$15.00</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>S$189.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>21 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOPITIAM @ PAYA LEBAR SI NG 20JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>S$2.20</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>S$202.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>23 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>S$20.00</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>S$224.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>23 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>S$130.00</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>S$334.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>26 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>POS</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Point-Of-Sale</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Point-of-Sale Transaction 43375097,MR BEAN NETS</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>S$1.90</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>S$202.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>28 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>S$1.50</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>S$202.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>28 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>S$17.90</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>S$186.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>29 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>29 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction VAST.AI* O9UCR62 HT TP 27JAN 4628-4500-4337-5097 USD50.00</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>S$67.87</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>S$136.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>31 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction ICE LAB SI NG 30JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>S$18.00</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>S$186.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>31 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction BOOST JUICE JEM SI NG 30JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>S$11.00</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>S$193.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>31 Jan 2023</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>S$0.01</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>S$204.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>01 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>S$1.50</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>S$202.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>01 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>S$23.80</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>S$180.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>01 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>S$4.10</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>S$200.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>02 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction NIPONG NAEPONG SI NG 30JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>S$48.47</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>S$156.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>03 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction VAST.AI* 5FZDXGW HT TP 01FEB 4628-4500-4337-5097 USD30.00</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>S$40.84</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>S$163.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>04 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK SI NG 01FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>S$20.50</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>S$183.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>04 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction VAST.AI* SHBNCWO HT TP 03FEB 4628-4500-4337-5097 USD20.00</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>S$27.08</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>S$177.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>04 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>S$200.00</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>S$404.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>05 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction VAST.AI* IU1HJJZ HT TP 03FEB 4628-4500-4337-5097 USD50.00</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>S$67.72</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>S$136.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>05 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>07 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction VAST.AI* HSPFHZ5 HT TP 04FEB 4628-4500-4337-5097 USD50.00</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>S$68.35</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>S$136.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>07 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction VAST.AI* C9W45F2 HT TP 05FEB 4628-4500-4337-5097 USD20.00</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>S$27.34</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>S$177.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>07 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 04FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>S$5.50</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>S$198.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>08 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GENKI SUSHI-WESTGATE SI NG 06FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>S$45.62</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>S$158.85</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>08 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-4HPVK7XWWFXM SI NG 06FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>S$33.25</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>S$171.22</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>09 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer OCBC:717525968001:I-BANK funds transfer OTHR 102286746100</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>S$194.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>10 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>ICT</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: DING MINGZHONG OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>S$18.00</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>S$186.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>11 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 08FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>S$5.84</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>S$198.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>12 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-4I92CJEGWGTH SI NG 10FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>S$19.80</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>S$184.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>12 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>S$100.00</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>S$304.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>14 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB* A-4IDC5CCWWGTH SI NG 11FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>S$22.90</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>S$181.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>14 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction KOUFU PTE LTD SI NG 13FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>S$6.30</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>S$198.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>18 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>ITR</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Funds Transfer</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Funds Transfer 009-1-024105 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>S$284.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>19 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>S$43.60</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>S$160.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>19 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>S$4.65</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>S$199.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>19 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 17FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>S$7.20</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>S$197.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>21 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GRAB SI NG 18FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>S$19.10</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>S$185.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>21 Feb 2023</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>MST</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Card Transaction</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Debit Card Transaction GOJEK 90 10 19FEB 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>S$19.00</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
           <t>S$204.47</t>
         </is>
       </c>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S$182.72</t>
+          <t>S$178.25</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>S$185.07</t>
+          <t>S$180.6</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S$175.77</t>
+          <t>S$171.3</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S$161.27</t>
+          <t>S$156.8</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S$204.49</t>
+          <t>S$200.02</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S$179.47</t>
+          <t>S$175.0</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S$196.97</t>
+          <t>S$192.5</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S$187.47</t>
+          <t>S$183.0</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>S$220.37</t>
+          <t>S$215.9</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S$207.27</t>
+          <t>S$202.8</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S$197.27</t>
+          <t>S$192.8</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S$114.55</t>
+          <t>S$110.08</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S$239.07</t>
+          <t>S$234.6</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S$151.47</t>
+          <t>S$147.0</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S$154.57</t>
+          <t>S$150.1</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S$172.59</t>
+          <t>S$168.12</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S$184.18</t>
+          <t>S$179.71</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S$198.74</t>
+          <t>S$194.27</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>S$206.33</t>
+          <t>S$201.86</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S$193.12</t>
+          <t>S$188.65</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S$160.67</t>
+          <t>S$156.2</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>S$334.47</t>
+          <t>S$330.0</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S$179.12</t>
+          <t>S$174.65</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S$197.27</t>
+          <t>S$192.8</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S$186.92</t>
+          <t>S$182.45</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S$198.57</t>
+          <t>S$194.1</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S$334.47</t>
+          <t>S$330.0</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>S$304.47</t>
+          <t>S$300.0</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S$155.57</t>
+          <t>S$151.1</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>S$169.77</t>
+          <t>S$165.3</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>S$134.61</t>
+          <t>S$130.14</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>S$198.97</t>
+          <t>S$194.5</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S$218.47</t>
+          <t>S$214.0</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>S$204.48</t>
+          <t>S$200.01</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>S$190.47</t>
+          <t>S$186.0</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S$258.57</t>
+          <t>S$254.1</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>S$258.47</t>
+          <t>S$254.0</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S$246.47</t>
+          <t>S$242.0</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>S$199.17</t>
+          <t>S$194.7</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>S$186.77</t>
+          <t>S$182.3</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>S$161.82</t>
+          <t>S$157.35</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>S$36.49</t>
+          <t>S$32.02</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>S$180.27</t>
+          <t>S$175.8</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>S$177.47</t>
+          <t>S$173.0</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>S$188.47</t>
+          <t>S$184.0</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>S$202.97</t>
+          <t>S$198.5</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>S$248.47</t>
+          <t>S$244.0</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>S$183.57</t>
+          <t>S$179.1</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>S$136.28</t>
+          <t>S$131.81</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>S$176.37</t>
+          <t>S$171.9</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>S$198.62</t>
+          <t>S$194.15</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>S$171.68</t>
+          <t>S$167.21</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>S$209.23</t>
+          <t>S$204.76</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>S$169.67</t>
+          <t>S$165.2</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>S$404.47</t>
+          <t>S$400.0</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>S$194.47</t>
+          <t>S$190.0</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>S$104.47</t>
+          <t>S$100.0</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>S$114.47</t>
+          <t>S$110.0</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>S$193.92</t>
+          <t>S$189.45</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>S$196.97</t>
+          <t>S$192.5</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>S$504.47</t>
+          <t>S$500.0</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>S$4.47</t>
+          <t>S$0.0</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>S$149.27</t>
+          <t>S$144.8</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>S$200.87</t>
+          <t>S$196.4</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>S$404.47</t>
+          <t>S$400.0</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>S$154.69</t>
+          <t>S$150.22</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>S$190.81</t>
+          <t>S$186.34</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>S$200.59</t>
+          <t>S$196.12</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>S$201.47</t>
+          <t>S$197.0</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>S$181.52</t>
+          <t>S$177.05</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>S$149.72</t>
+          <t>S$145.25</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>S$189.47</t>
+          <t>S$185.0</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>S$202.27</t>
+          <t>S$197.8</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>S$224.47</t>
+          <t>S$220.0</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>S$334.47</t>
+          <t>S$330.0</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>S$202.57</t>
+          <t>S$198.1</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>S$202.97</t>
+          <t>S$198.5</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>S$186.57</t>
+          <t>S$182.1</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>S$136.6</t>
+          <t>S$132.13</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>S$186.47</t>
+          <t>S$182.0</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>S$193.47</t>
+          <t>S$189.0</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>S$204.48</t>
+          <t>S$200.01</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>S$202.97</t>
+          <t>S$198.5</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>S$180.67</t>
+          <t>S$176.2</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>S$200.37</t>
+          <t>S$195.9</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>S$156.0</t>
+          <t>S$151.53</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>S$163.63</t>
+          <t>S$159.16</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>S$183.97</t>
+          <t>S$179.5</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>S$177.39</t>
+          <t>S$172.92</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>S$404.47</t>
+          <t>S$400.0</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>S$136.75</t>
+          <t>S$132.28</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>S$136.12</t>
+          <t>S$131.65</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>S$177.13</t>
+          <t>S$172.66</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>S$198.97</t>
+          <t>S$194.5</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>S$158.85</t>
+          <t>S$154.38</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>S$171.22</t>
+          <t>S$166.75</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>S$194.47</t>
+          <t>S$190.0</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>S$186.47</t>
+          <t>S$182.0</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>S$198.63</t>
+          <t>S$194.16</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>S$184.67</t>
+          <t>S$180.2</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>S$304.47</t>
+          <t>S$300.0</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>S$181.57</t>
+          <t>S$177.1</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>S$198.17</t>
+          <t>S$193.7</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>S$284.47</t>
+          <t>S$280.0</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4534,7 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>S$160.87</t>
+          <t>S$156.4</t>
         </is>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>S$199.82</t>
+          <t>S$195.35</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>S$197.27</t>
+          <t>S$192.8</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>S$185.37</t>
+          <t>S$180.9</t>
         </is>
       </c>
     </row>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S$178.25</t>
+          <t>S$182.92</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>S$180.6</t>
+          <t>S$185.27</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S$171.3</t>
+          <t>S$175.97</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S$156.8</t>
+          <t>S$161.47</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S$200.02</t>
+          <t>S$204.69</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S$175.0</t>
+          <t>S$179.67</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S$192.5</t>
+          <t>S$197.17</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S$183.0</t>
+          <t>S$187.67</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>S$215.9</t>
+          <t>S$220.57</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S$202.8</t>
+          <t>S$207.47</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S$192.8</t>
+          <t>S$197.47</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S$110.08</t>
+          <t>S$114.75</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S$234.6</t>
+          <t>S$239.27</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S$147.0</t>
+          <t>S$151.67</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S$150.1</t>
+          <t>S$154.77</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S$168.12</t>
+          <t>S$172.79</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S$179.71</t>
+          <t>S$184.38</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S$194.27</t>
+          <t>S$198.94</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>S$201.86</t>
+          <t>S$206.53</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S$188.65</t>
+          <t>S$193.32</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S$156.2</t>
+          <t>S$160.87</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>S$330.0</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S$174.65</t>
+          <t>S$179.32</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S$192.8</t>
+          <t>S$197.47</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S$182.45</t>
+          <t>S$187.12</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S$194.1</t>
+          <t>S$198.77</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S$330.0</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>S$300.0</t>
+          <t>S$304.67</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S$151.1</t>
+          <t>S$155.77</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>S$165.3</t>
+          <t>S$169.97</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>S$130.14</t>
+          <t>S$134.81</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>S$194.5</t>
+          <t>S$199.17</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S$214.0</t>
+          <t>S$218.67</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>S$200.01</t>
+          <t>S$204.68</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>S$186.0</t>
+          <t>S$190.67</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S$254.1</t>
+          <t>S$258.77</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>S$254.0</t>
+          <t>S$258.67</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S$242.0</t>
+          <t>S$246.67</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>S$194.7</t>
+          <t>S$199.37</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>S$182.3</t>
+          <t>S$186.97</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>S$157.35</t>
+          <t>S$162.02</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>S$32.02</t>
+          <t>S$36.69</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>S$175.8</t>
+          <t>S$180.47</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>S$173.0</t>
+          <t>S$177.67</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>S$184.0</t>
+          <t>S$188.67</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>S$198.5</t>
+          <t>S$203.17</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>S$244.0</t>
+          <t>S$248.67</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>S$179.1</t>
+          <t>S$183.77</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>S$131.81</t>
+          <t>S$136.48</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>S$171.9</t>
+          <t>S$176.57</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>S$194.15</t>
+          <t>S$198.82</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>S$167.21</t>
+          <t>S$171.88</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>S$204.76</t>
+          <t>S$209.43</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>S$165.2</t>
+          <t>S$169.87</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>S$400.0</t>
+          <t>S$404.67</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>S$190.0</t>
+          <t>S$194.67</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>S$100.0</t>
+          <t>S$104.67</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>S$110.0</t>
+          <t>S$114.67</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>S$189.45</t>
+          <t>S$194.12</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>S$192.5</t>
+          <t>S$197.17</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>S$500.0</t>
+          <t>S$504.67</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>S$0.0</t>
+          <t>S$4.67</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>S$144.8</t>
+          <t>S$149.47</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>S$196.4</t>
+          <t>S$201.07</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>S$400.0</t>
+          <t>S$404.67</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>S$150.22</t>
+          <t>S$154.89</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>S$186.34</t>
+          <t>S$191.01</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>S$196.12</t>
+          <t>S$200.79</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>S$197.0</t>
+          <t>S$201.67</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>S$177.05</t>
+          <t>S$181.72</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>S$145.25</t>
+          <t>S$149.92</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>S$185.0</t>
+          <t>S$189.67</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>S$197.8</t>
+          <t>S$202.47</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>S$220.0</t>
+          <t>S$224.67</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>S$330.0</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>S$198.1</t>
+          <t>S$202.77</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>S$198.5</t>
+          <t>S$203.17</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>S$182.1</t>
+          <t>S$186.77</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>S$132.13</t>
+          <t>S$136.8</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>S$182.0</t>
+          <t>S$186.67</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>S$189.0</t>
+          <t>S$193.67</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>S$200.01</t>
+          <t>S$204.68</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>S$198.5</t>
+          <t>S$203.17</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>S$176.2</t>
+          <t>S$180.87</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>S$195.9</t>
+          <t>S$200.57</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>S$151.53</t>
+          <t>S$156.2</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>S$159.16</t>
+          <t>S$163.83</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>S$179.5</t>
+          <t>S$184.17</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>S$172.92</t>
+          <t>S$177.59</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>S$400.0</t>
+          <t>S$404.67</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>S$132.28</t>
+          <t>S$136.95</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>S$131.65</t>
+          <t>S$136.32</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>S$172.66</t>
+          <t>S$177.33</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>S$194.5</t>
+          <t>S$199.17</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>S$154.38</t>
+          <t>S$159.05</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>S$166.75</t>
+          <t>S$171.42</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>S$190.0</t>
+          <t>S$194.67</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>S$182.0</t>
+          <t>S$186.67</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>S$194.16</t>
+          <t>S$198.83</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>S$180.2</t>
+          <t>S$184.87</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>S$300.0</t>
+          <t>S$304.67</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>S$177.1</t>
+          <t>S$181.77</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>S$193.7</t>
+          <t>S$198.37</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>S$280.0</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4534,7 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>S$156.4</t>
+          <t>S$161.07</t>
         </is>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>S$195.35</t>
+          <t>S$200.02</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>S$192.8</t>
+          <t>S$197.47</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>S$180.9</t>
+          <t>S$185.57</t>
         </is>
       </c>
     </row>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -474,10 +478,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>28 Nov 2022</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -510,10 +512,8 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>29 Nov 2022</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44894</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -546,10 +546,8 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>29 Nov 2022</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44894</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -582,10 +580,8 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>29 Nov 2022</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44894</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -618,10 +614,8 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>30 Nov 2022</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44895</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -654,10 +648,8 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>30 Nov 2022</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44895</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -690,10 +682,8 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>03 Dec 2022</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44898</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -726,10 +716,8 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>03 Dec 2022</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44898</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -762,10 +750,8 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>05 Dec 2022</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -798,10 +784,8 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>06 Dec 2022</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44901</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -834,10 +818,8 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>06 Dec 2022</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>44901</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -870,10 +852,8 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>06 Dec 2022</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44901</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -906,10 +886,8 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>07 Dec 2022</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>44902</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -942,10 +920,8 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>08 Dec 2022</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44903</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -978,10 +954,8 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>10 Dec 2022</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>44905</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1014,10 +988,8 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>11 Dec 2022</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>44906</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1050,10 +1022,8 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>12 Dec 2022</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1086,10 +1056,8 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>12 Dec 2022</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1122,10 +1090,8 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>13 Dec 2022</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>44908</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1158,10 +1124,8 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>13 Dec 2022</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>44908</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1194,10 +1158,8 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>15 Dec 2022</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44910</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1230,10 +1192,8 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>15 Dec 2022</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>44910</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1266,10 +1226,8 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>17 Dec 2022</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>44912</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1302,10 +1260,8 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>17 Dec 2022</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>44912</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1338,10 +1294,8 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>20 Dec 2022</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>44915</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1374,10 +1328,8 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>44920</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1410,10 +1362,8 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>44920</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1446,10 +1396,8 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>44920</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1482,10 +1430,8 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>44920</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1518,10 +1464,8 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>25 Dec 2022</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>44920</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1554,10 +1498,8 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>26 Dec 2022</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1590,10 +1532,8 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>28 Dec 2022</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>44923</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1626,10 +1566,8 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>28 Dec 2022</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>44923</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1662,10 +1600,8 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>28 Dec 2022</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>44923</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1698,10 +1634,8 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>31 Dec 2022</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1734,10 +1668,8 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>31 Dec 2022</t>
-        </is>
+      <c r="B37" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1770,10 +1702,8 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>31 Dec 2022</t>
-        </is>
+      <c r="B38" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1806,10 +1736,8 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>01 Jan 2023</t>
-        </is>
+      <c r="B39" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1842,10 +1770,8 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>02 Jan 2023</t>
-        </is>
+      <c r="B40" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1878,10 +1804,8 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>02 Jan 2023</t>
-        </is>
+      <c r="B41" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1914,10 +1838,8 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>03 Jan 2023</t>
-        </is>
+      <c r="B42" s="2" t="n">
+        <v>44929</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1950,10 +1872,8 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>03 Jan 2023</t>
-        </is>
+      <c r="B43" s="2" t="n">
+        <v>44929</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1986,10 +1906,8 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>04 Jan 2023</t>
-        </is>
+      <c r="B44" s="2" t="n">
+        <v>44930</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2022,10 +1940,8 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>04 Jan 2023</t>
-        </is>
+      <c r="B45" s="2" t="n">
+        <v>44930</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2058,10 +1974,8 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>05 Jan 2023</t>
-        </is>
+      <c r="B46" s="2" t="n">
+        <v>44931</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2094,10 +2008,8 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>05 Jan 2023</t>
-        </is>
+      <c r="B47" s="2" t="n">
+        <v>44931</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2130,10 +2042,8 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>05 Jan 2023</t>
-        </is>
+      <c r="B48" s="2" t="n">
+        <v>44931</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2166,10 +2076,8 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>05 Jan 2023</t>
-        </is>
+      <c r="B49" s="2" t="n">
+        <v>44931</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2202,10 +2110,8 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>06 Jan 2023</t>
-        </is>
+      <c r="B50" s="2" t="n">
+        <v>44932</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2238,10 +2144,8 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>07 Jan 2023</t>
-        </is>
+      <c r="B51" s="2" t="n">
+        <v>44933</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2274,10 +2178,8 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>07 Jan 2023</t>
-        </is>
+      <c r="B52" s="2" t="n">
+        <v>44933</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2310,10 +2212,8 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>08 Jan 2023</t>
-        </is>
+      <c r="B53" s="2" t="n">
+        <v>44934</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2346,10 +2246,8 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>10 Jan 2023</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>44936</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2382,10 +2280,8 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>11 Jan 2023</t>
-        </is>
+      <c r="B55" s="2" t="n">
+        <v>44937</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2418,10 +2314,8 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>11 Jan 2023</t>
-        </is>
+      <c r="B56" s="2" t="n">
+        <v>44937</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2454,10 +2348,8 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>12 Jan 2023</t>
-        </is>
+      <c r="B57" s="2" t="n">
+        <v>44938</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2490,10 +2382,8 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>12 Jan 2023</t>
-        </is>
+      <c r="B58" s="2" t="n">
+        <v>44938</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2526,10 +2416,8 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>13 Jan 2023</t>
-        </is>
+      <c r="B59" s="2" t="n">
+        <v>44939</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2562,10 +2450,8 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>15 Jan 2023</t>
-        </is>
+      <c r="B60" s="2" t="n">
+        <v>44941</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2598,10 +2484,8 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
+      <c r="B61" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2634,10 +2518,8 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2670,10 +2552,8 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
+      <c r="B63" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2706,10 +2586,8 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
+      <c r="B64" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2742,10 +2620,8 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>16 Jan 2023</t>
-        </is>
+      <c r="B65" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2778,10 +2654,8 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>17 Jan 2023</t>
-        </is>
+      <c r="B66" s="2" t="n">
+        <v>44943</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2814,10 +2688,8 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>17 Jan 2023</t>
-        </is>
+      <c r="B67" s="2" t="n">
+        <v>44943</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2850,10 +2722,8 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>17 Jan 2023</t>
-        </is>
+      <c r="B68" s="2" t="n">
+        <v>44943</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2886,10 +2756,8 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>18 Jan 2023</t>
-        </is>
+      <c r="B69" s="2" t="n">
+        <v>44944</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2922,10 +2790,8 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>18 Jan 2023</t>
-        </is>
+      <c r="B70" s="2" t="n">
+        <v>44944</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2958,10 +2824,8 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>18 Jan 2023</t>
-        </is>
+      <c r="B71" s="2" t="n">
+        <v>44944</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2994,10 +2858,8 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>18 Jan 2023</t>
-        </is>
+      <c r="B72" s="2" t="n">
+        <v>44944</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3030,10 +2892,8 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>19 Jan 2023</t>
-        </is>
+      <c r="B73" s="2" t="n">
+        <v>44945</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3066,10 +2926,8 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>19 Jan 2023</t>
-        </is>
+      <c r="B74" s="2" t="n">
+        <v>44945</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3102,10 +2960,8 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>20 Jan 2023</t>
-        </is>
+      <c r="B75" s="2" t="n">
+        <v>44946</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3138,10 +2994,8 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>20 Jan 2023</t>
-        </is>
+      <c r="B76" s="2" t="n">
+        <v>44946</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3174,10 +3028,8 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>20 Jan 2023</t>
-        </is>
+      <c r="B77" s="2" t="n">
+        <v>44946</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3210,10 +3062,8 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>20 Jan 2023</t>
-        </is>
+      <c r="B78" s="2" t="n">
+        <v>44946</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3246,10 +3096,8 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>21 Jan 2023</t>
-        </is>
+      <c r="B79" s="2" t="n">
+        <v>44947</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3282,10 +3130,8 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>21 Jan 2023</t>
-        </is>
+      <c r="B80" s="2" t="n">
+        <v>44947</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3318,10 +3164,8 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>23 Jan 2023</t>
-        </is>
+      <c r="B81" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3354,10 +3198,8 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>23 Jan 2023</t>
-        </is>
+      <c r="B82" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3390,10 +3232,8 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>26 Jan 2023</t>
-        </is>
+      <c r="B83" s="2" t="n">
+        <v>44952</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3426,10 +3266,8 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>28 Jan 2023</t>
-        </is>
+      <c r="B84" s="2" t="n">
+        <v>44954</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3462,10 +3300,8 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>28 Jan 2023</t>
-        </is>
+      <c r="B85" s="2" t="n">
+        <v>44954</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3498,10 +3334,8 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>29 Jan 2023</t>
-        </is>
+      <c r="B86" s="2" t="n">
+        <v>44955</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3534,10 +3368,8 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>29 Jan 2023</t>
-        </is>
+      <c r="B87" s="2" t="n">
+        <v>44955</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3570,10 +3402,8 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>31 Jan 2023</t>
-        </is>
+      <c r="B88" s="2" t="n">
+        <v>44957</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3606,10 +3436,8 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>31 Jan 2023</t>
-        </is>
+      <c r="B89" s="2" t="n">
+        <v>44957</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3642,10 +3470,8 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>31 Jan 2023</t>
-        </is>
+      <c r="B90" s="2" t="n">
+        <v>44957</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3678,10 +3504,8 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>01 Feb 2023</t>
-        </is>
+      <c r="B91" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3714,10 +3538,8 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>01 Feb 2023</t>
-        </is>
+      <c r="B92" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3750,10 +3572,8 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>01 Feb 2023</t>
-        </is>
+      <c r="B93" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3786,10 +3606,8 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>02 Feb 2023</t>
-        </is>
+      <c r="B94" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3822,10 +3640,8 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>03 Feb 2023</t>
-        </is>
+      <c r="B95" s="2" t="n">
+        <v>44960</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3858,10 +3674,8 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>04 Feb 2023</t>
-        </is>
+      <c r="B96" s="2" t="n">
+        <v>44961</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3894,10 +3708,8 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>04 Feb 2023</t>
-        </is>
+      <c r="B97" s="2" t="n">
+        <v>44961</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3930,10 +3742,8 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>04 Feb 2023</t>
-        </is>
+      <c r="B98" s="2" t="n">
+        <v>44961</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3966,10 +3776,8 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>05 Feb 2023</t>
-        </is>
+      <c r="B99" s="2" t="n">
+        <v>44962</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -4002,10 +3810,8 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>05 Feb 2023</t>
-        </is>
+      <c r="B100" s="2" t="n">
+        <v>44962</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -4038,10 +3844,8 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>07 Feb 2023</t>
-        </is>
+      <c r="B101" s="2" t="n">
+        <v>44964</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -4074,10 +3878,8 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>07 Feb 2023</t>
-        </is>
+      <c r="B102" s="2" t="n">
+        <v>44964</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -4110,10 +3912,8 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>07 Feb 2023</t>
-        </is>
+      <c r="B103" s="2" t="n">
+        <v>44964</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -4146,10 +3946,8 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>08 Feb 2023</t>
-        </is>
+      <c r="B104" s="2" t="n">
+        <v>44965</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -4182,10 +3980,8 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>08 Feb 2023</t>
-        </is>
+      <c r="B105" s="2" t="n">
+        <v>44965</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -4218,10 +4014,8 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>09 Feb 2023</t>
-        </is>
+      <c r="B106" s="2" t="n">
+        <v>44966</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -4254,10 +4048,8 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>10 Feb 2023</t>
-        </is>
+      <c r="B107" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -4290,10 +4082,8 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>11 Feb 2023</t>
-        </is>
+      <c r="B108" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -4326,10 +4116,8 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>12 Feb 2023</t>
-        </is>
+      <c r="B109" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -4362,10 +4150,8 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>12 Feb 2023</t>
-        </is>
+      <c r="B110" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -4398,10 +4184,8 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>14 Feb 2023</t>
-        </is>
+      <c r="B111" s="2" t="n">
+        <v>44971</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -4434,10 +4218,8 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>14 Feb 2023</t>
-        </is>
+      <c r="B112" s="2" t="n">
+        <v>44971</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -4470,10 +4252,8 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>18 Feb 2023</t>
-        </is>
+      <c r="B113" s="2" t="n">
+        <v>44975</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -4506,10 +4286,8 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>19 Feb 2023</t>
-        </is>
+      <c r="B114" s="2" t="n">
+        <v>44976</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -4542,10 +4320,8 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>19 Feb 2023</t>
-        </is>
+      <c r="B115" s="2" t="n">
+        <v>44976</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4578,10 +4354,8 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>19 Feb 2023</t>
-        </is>
+      <c r="B116" s="2" t="n">
+        <v>44976</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -4614,10 +4388,8 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>21 Feb 2023</t>
-        </is>
+      <c r="B117" s="2" t="n">
+        <v>44978</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -4650,10 +4422,8 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>21 Feb 2023</t>
-        </is>
+      <c r="B118" s="2" t="n">
+        <v>44978</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -1326,41 +1326,41 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>44920</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 22DEC 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S$25.35</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S$179.32</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>44920</v>
@@ -1377,24 +1377,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK SI NG 22DEC 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GRAB* A-4CWTSEBWWJUQ SI NG 23DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>S$7.20</t>
+          <t>S$17.55</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S$197.47</t>
+          <t>S$187.12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>44920</v>
@@ -1411,24 +1411,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GRAB* A-4CWTSEBWWJUQ SI NG 23DEC 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction BOOST JUICE RCS SI NG 24DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>S$17.55</t>
+          <t>S$5.90</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S$187.12</t>
+          <t>S$198.77</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>44920</v>
@@ -1445,52 +1445,52 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Debit Card Transaction BOOST JUICE RCS SI NG 24DEC 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 22DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>S$5.90</t>
+          <t>S$25.35</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S$198.77</t>
+          <t>S$179.32</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>44920</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>S$130.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK SI NG 22DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S$334.67</t>
+          <t>S$197.47</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>44929</v>
@@ -1853,24 +1853,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 7172069From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7582094From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>S$54.00</t>
+          <t>S$42.00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>S$258.67</t>
+          <t>S$246.67</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>44929</v>
@@ -1887,24 +1887,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 7582094From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7172069From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>S$42.00</t>
+          <t>S$54.00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S$246.67</t>
+          <t>S$258.67</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>44930</v>
@@ -1921,24 +1921,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Debit Card Transaction BOOST JUICE ION SI NG 02JAN 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GOJEK 90 10 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>S$5.30</t>
+          <t>S$17.70</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>S$199.37</t>
+          <t>S$186.97</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>44930</v>
@@ -1955,18 +1955,18 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK 90 10 02JAN 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction BOOST JUICE ION SI NG 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>S$17.70</t>
+          <t>S$5.30</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>S$186.97</t>
+          <t>S$199.37</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>44938</v>
@@ -2363,24 +2363,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 09JAN 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction SHABURI &amp; KINTAN BUFFE SI NG 10JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>S$5.85</t>
+          <t>S$32.79</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>S$198.82</t>
+          <t>S$171.88</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>44938</v>
@@ -2397,18 +2397,18 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Debit Card Transaction SHABURI &amp; KINTAN BUFFE SI NG 10JAN 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 09JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>S$32.79</t>
+          <t>S$5.85</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>S$171.88</t>
+          <t>S$198.82</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>44945</v>
@@ -2907,24 +2907,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Debit Card Transaction ABURI EN@JEM SI NG 16JAN 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* I2KP0MI HT TP 17JAN 4628-4500-4337-5097 USD10.00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>S$49.78</t>
+          <t>S$13.66</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>S$154.89</t>
+          <t>S$191.01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>44945</v>
@@ -2941,18 +2941,18 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Debit Card Transaction VAST.AI* I2KP0MI HT TP 17JAN 4628-4500-4337-5097 USD10.00</t>
+          <t>Debit Card Transaction ABURI EN@JEM SI NG 16JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>S$13.66</t>
+          <t>S$49.78</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>S$191.01</t>
+          <t>S$154.89</t>
         </is>
       </c>
     </row>
@@ -3332,103 +3332,103 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction VAST.AI* O9UCR62 HT TP 27JAN 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S$67.87</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>S$284.67</t>
+          <t>S$136.8</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Debit Card Transaction VAST.AI* O9UCR62 HT TP 27JAN 4628-4500-4337-5097 USD50.00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>S$67.87</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>S$136.8</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Debit Card Transaction ICE LAB SI NG 30JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>S$18.00</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>S$186.67</t>
+          <t>S$204.68</t>
         </is>
       </c>
     </row>
@@ -3468,35 +3468,35 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>S$0.01</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction ICE LAB SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>S$18.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>S$204.68</t>
+          <t>S$186.67</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>44965</v>
@@ -3961,24 +3961,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GENKI SUSHI-WESTGATE SI NG 06FEB 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GRAB* A-4HPVK7XWWFXM SI NG 06FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>S$45.62</t>
+          <t>S$33.25</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>S$159.05</t>
+          <t>S$171.42</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>44965</v>
@@ -3995,18 +3995,18 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GRAB* A-4HPVK7XWWFXM SI NG 06FEB 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GENKI SUSHI-WESTGATE SI NG 06FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>S$33.25</t>
+          <t>S$45.62</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>S$171.42</t>
+          <t>S$159.05</t>
         </is>
       </c>
     </row>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,32 +479,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44955</v>
+        <v>44893</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: SHOPEEPAY PRIVATE LIMITED OTHR SPW6591398051</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 3946391From: ONG LAY HONG OTHR Transfer - Mobile</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>S$20.00</t>
+          <t>S$80.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>S$224.67</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -513,32 +513,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44955</v>
+        <v>44894</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Advice TRF 592-31883-0 : I-BANK</t>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 25NOV 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S$20.00</t>
+          <t>S$21.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S$184.67</t>
+          <t>S$182.92</t>
         </is>
       </c>
     </row>
@@ -547,32 +547,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44955</v>
+        <v>44894</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT THE SOUP SPOON PL - UN SI NG 26JAN 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S$32.70</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 26NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S$19.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>S$237.37</t>
+          <t>S$185.27</t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44955</v>
+        <v>44894</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT KOUFU PTE LTD SI NG 27JAN 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>S$1.50</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 27NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S$28.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S$206.17</t>
+          <t>S$175.97</t>
         </is>
       </c>
     </row>
@@ -615,202 +615,202 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44956</v>
+        <v>44895</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Advice TRF 592-31883-0 : I-BANK</t>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 28NOV 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S$10.00</t>
+          <t>S$43.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S$194.67</t>
+          <t>S$161.47</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44957</v>
+        <v>44895</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Advice TRF 592-31883-0 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S$0.02</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S$194.67</t>
+          <t>S$204.69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44957</v>
+        <v>44898</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer PayNow Transfer To: klaudine OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S$25.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S$214.67</t>
+          <t>S$179.67</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44957</v>
+        <v>44898</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 02DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S$7.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S$214.67</t>
+          <t>S$197.17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44957</v>
+        <v>44900</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT GRAB* A-4GIMAUQGWIWA SI NG 28JAN 4628-4500-4388-5426</t>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S$32.80</t>
+          <t>S$80.00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>S$237.47</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44957</v>
+        <v>44901</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>S$4.80</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GRAB* A-49CMS4JWWJQO SI NG 03DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S$17.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S$209.47</t>
+          <t>S$187.67</t>
         </is>
       </c>
     </row>
@@ -819,32 +819,32 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44958</v>
+        <v>44901</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT GOJEK SI NG 27JAN 4628-4500-4388-5426</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 9409238From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>S$25.20</t>
+          <t>S$15.90</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>S$229.87</t>
+          <t>S$220.57</t>
         </is>
       </c>
     </row>
@@ -853,372 +853,372 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44958</v>
+        <v>44901</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Advice TRF MAXED OUT FROM PAYLAH! : Evelyn</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>S$250.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 9416410From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>S$2.80</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S$-45.33</t>
+          <t>S$207.47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44959</v>
+        <v>44902</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Advice ICT Incoming PayNow Ref 6118807From: KAISER CHUA JIA YU OTHR PayNow Transfer</t>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 05DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>S$2.80</t>
+          <t>S$7.20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S$201.87</t>
+          <t>S$197.47</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44959</v>
+        <v>44903</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: ABHISHEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S$6.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction IPPUDO - WEST GATE SI NG 06DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S$89.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S$210.67</t>
+          <t>S$114.75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44959</v>
+        <v>44905</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: Qi Lin OTHR PayNow Transfer</t>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>S$8.30</t>
+          <t>S$34.60</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S$212.97</t>
+          <t>S$239.27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44959</v>
+        <v>44906</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: SENG CITY TRADING OTHR 000000445630</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>S$6.30</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction HOSHINO COFFEE SI NG 10DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S$53.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S$210.97</t>
+          <t>S$151.67</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44959</v>
+        <v>44907</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Advice ICT Incoming PayNow Ref 6096788From: WU JIANHUI OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>S$3.15</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>S$201.52</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44959</v>
+        <v>44907</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Point-Of-Sale</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer OTHR 000000445645</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>S$8.55</t>
-        </is>
-      </c>
+          <t>Point-of-Sale Transaction 43375097,RPG-INT PTE LTD NETS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S$49.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S$213.22</t>
+          <t>S$154.77</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44959</v>
+        <v>44908</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Advice ICT Incoming PayNow Ref 6118504From: CHUA SHI EN OTHR PayNow Transfer</t>
+          <t>Debit Card Transaction PHOON HUAT PTE LTD SI NG 10DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S$2.85</t>
+          <t>S$31.88</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S$201.82</t>
+          <t>S$172.79</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44960</v>
+        <v>44908</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,JOLLIBEE NETS</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>S$14.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction DELIVEROO SI NG 11DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S$20.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S$218.67</t>
+          <t>S$184.38</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44960</v>
+        <v>44910</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,COMFORT TRANSPORTATION PT NETS CLICK</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>S$22.80</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 12DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S$5.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S$227.47</t>
+          <t>S$198.94</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44960</v>
+        <v>44910</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT KOUFU PTE LTD SI NG 01FEB 4628-4500-4388-5426</t>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK N OV 13DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>S$1.50</t>
+          <t>S$1.86</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>S$206.17</t>
+          <t>S$206.53</t>
         </is>
       </c>
     </row>
@@ -1227,32 +1227,32 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44965</v>
+        <v>44912</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT GOJEK SI NG 04FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>S$21.20</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 13DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>S$11.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S$225.87</t>
+          <t>S$193.32</t>
         </is>
       </c>
     </row>
@@ -1261,32 +1261,32 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44965</v>
+        <v>44912</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT YOLE @ WESTGATE SI NG 06FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>S$5.50</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GRAB* A-4AT3926GWE4O SI NG 14DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>S$43.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S$210.17</t>
+          <t>S$160.87</t>
         </is>
       </c>
     </row>
@@ -1295,202 +1295,202 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44965</v>
+        <v>44915</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: SHOPEEPAY PRIVATE LIMITED OTHR SPW6591398051</t>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>S$13.00</t>
+          <t>S$130.00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>S$217.67</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44966</v>
+        <v>44920</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Advice ICT Incoming PayNow Ref 8157762From: GOH PENG PENG EUNICE OTHR Feb</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S$100.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S$104.67</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44966</v>
+        <v>44920</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>S$3.50</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GRAB* A-4CWTSEBWWJUQ SI NG 23DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S$17.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S$208.17</t>
+          <t>S$187.12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44966</v>
+        <v>44920</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Advice POS NETS QR PAYMENT TO: DRINKS AND FRUITS</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>S$1.40</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction BOOST JUICE RCS SI NG 24DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>S$5.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S$206.07</t>
+          <t>S$198.77</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44967</v>
+        <v>44920</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>S$1.40</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 22DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>S$25.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S$206.07</t>
+          <t>S$179.32</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44967</v>
+        <v>44920</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,COMFORT TRANSPORTATION PT NETS CLICK</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>S$21.45</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK SI NG 22DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S$226.12</t>
+          <t>S$197.47</t>
         </is>
       </c>
     </row>
@@ -1499,32 +1499,32 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44968</v>
+        <v>44921</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,COMFORT TRANSPORTATION PT NETS CLICK</t>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>S$22.15</t>
+          <t>S$100.00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>S$226.82</t>
+          <t>S$304.67</t>
         </is>
       </c>
     </row>
@@ -1533,32 +1533,32 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44969</v>
+        <v>44923</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT KOUFU PTE LTD SI NG 10FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>S$3.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction BUILDER AT SIMS SI NG 25DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>S$48.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S$207.67</t>
+          <t>S$155.77</t>
         </is>
       </c>
     </row>
@@ -1567,32 +1567,32 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44972</v>
+        <v>44923</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT 7-ELEVEN-DOVER MRT SI NG 13FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 23DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>S$34.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>S$214.67</t>
+          <t>S$169.97</t>
         </is>
       </c>
     </row>
@@ -1601,32 +1601,32 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44972</v>
+        <v>44923</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT KOUFU PTE LTD SI NG 13FEB 4628-4500-4388-5426BAT KOUFU PTE LTD SI NG 13FEB 4628-4500-4388-5426</t>
+          <t>Debit Card Transaction IPPUDO - RAFFLES CITY SI NG 24DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>S$3.00</t>
+          <t>S$69.86</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>S$201.67</t>
+          <t>S$134.81</t>
         </is>
       </c>
     </row>
@@ -1635,32 +1635,32 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44972</v>
+        <v>44926</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT TRANSIT 30000528299185 SI NG 13FEB 4628-4500-4388-5426</t>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 29DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>S$20.00</t>
+          <t>S$5.50</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>S$184.67</t>
+          <t>S$199.17</t>
         </is>
       </c>
     </row>
@@ -1669,32 +1669,32 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44972</v>
+        <v>44926</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>S$1.60</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>S$14.00</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S$203.07</t>
+          <t>S$218.67</t>
         </is>
       </c>
     </row>
@@ -1703,32 +1703,32 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44972</v>
+        <v>44926</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Advice TRF MAXED OUT FROM PAYLAH! : Evelyn</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>S$228.50</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>S$-23.83</t>
+          <t>S$204.68</t>
         </is>
       </c>
     </row>
@@ -1737,32 +1737,32 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44974</v>
+        <v>44927</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,COMFORT TRANSPORTATION PT NETS CLICK</t>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 30DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S$23.10</t>
+          <t>S$14.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>S$181.57</t>
+          <t>S$190.67</t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44975</v>
+        <v>44928</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT MCDONALD'S (PRC2) SI NG 14FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>S$1.00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>S$203.67</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -1805,32 +1805,32 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44979</v>
+        <v>44928</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Advice POS NETS QR PAYMENT TO: MEI HEONG YUEN DESSERT</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>S$8.00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 5364842From: ASON ANG CHEE KAY OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>S$54.10</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S$196.67</t>
+          <t>S$258.77</t>
         </is>
       </c>
     </row>
@@ -1839,32 +1839,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44982</v>
+        <v>44929</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT DBS VISA DEBIT CASHBACK J AN 23FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>S$7.29</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7582094From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>S$42.00</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>S$197.38</t>
+          <t>S$246.67</t>
         </is>
       </c>
     </row>
@@ -1873,64 +1873,2580 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44982</v>
+        <v>44929</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Advice TRF 592-31883-0 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>S$200.00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7172069From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>S$54.00</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S$4.67</t>
+          <t>S$258.67</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44982</v>
+        <v>44930</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT MCDONALD'S (PRSC) SI NG 21FEB 4628-4500-4388-5426</t>
+          <t>Debit Card Transaction GOJEK 90 10 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>S$4.15</t>
+          <t>S$17.70</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>S$186.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BOOST JUICE ION SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>S$5.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>S$199.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>S$42.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>S$162.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GUO FU SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>S$167.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>S$36.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>S$24.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>S$180.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: NIMMAGADDA VINEESH OTHR PayNow Transfer slayyy</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>S$27.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>S$177.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: HEARTLANDS OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>S$16.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>S$188.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 06JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>S$203.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>S$44.00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>S$248.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 08JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>S$20.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>S$183.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PIZZAKAYA-JEM SI NG 09JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>S$68.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>S$136.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 07JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>S$28.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>S$176.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction SHABURI &amp; KINTAN BUFFE SI NG 10JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>S$32.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>S$171.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 09JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>S$5.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>S$198.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK D EC 11JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>S$4.76</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>S$209.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4ENEVT9GWJQG SI NG 13JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>S$34.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>S$169.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>S$404.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859247</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>S$10.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>S$194.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859251</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>S$104.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>S$90.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>S$114.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MCDONALD'S (SP2) SI NG 12JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>S$10.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>S$194.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction 43375097,KOI THE SINGAPORE PTE LTD NETS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>S$7.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>S$197.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>S$300.00</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>S$504.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008862432</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>S$4.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction LA SENZA SI NG 17JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>S$55.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>S$149.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>S$3.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>S$201.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>S$404.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* I2KP0MI HT TP 17JAN 4628-4500-4337-5097 USD10.00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>S$13.66</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>S$191.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ABURI EN@JEM SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>S$49.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>S$154.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FAIRPRICE XTRA - JEM SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>S$3.88</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>S$200.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>S$3.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>S$201.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>S$22.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>S$181.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* 5QK143T HT TP 19JAN 4628-4500-4337-5097 USD40.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>S$54.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>S$149.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 20JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>S$15.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>S$189.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOPITIAM @ PAYA LEBAR SI NG 20JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>S$2.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>S$202.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>S$20.00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>S$224.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>S$334.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction 43375097,MR BEAN NETS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>S$1.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>S$202.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>S$203.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>S$17.90</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>S$186.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* O9UCR62 HT TP 27JAN 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S$67.87</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>S$136.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>S$204.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BOOST JUICE JEM SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>S$11.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>S$193.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ICE LAB SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>S$18.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>S$186.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>S$203.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>S$23.80</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>S$180.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>S$4.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>S$200.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction NIPONG NAEPONG SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>S$48.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>S$156.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* 5FZDXGW HT TP 01FEB 4628-4500-4337-5097 USD30.00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>S$40.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>S$163.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 01FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>S$20.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>S$184.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* SHBNCWO HT TP 03FEB 4628-4500-4337-5097 USD20.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>S$27.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>S$177.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>S$404.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* IU1HJJZ HT TP 03FEB 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>S$67.72</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>S$136.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* HSPFHZ5 HT TP 04FEB 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>S$68.35</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>S$136.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* C9W45F2 HT TP 05FEB 4628-4500-4337-5097 USD20.00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>S$27.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>S$177.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 04FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>S$5.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>S$199.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4HPVK7XWWFXM SI NG 06FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>S$33.25</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>S$171.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GENKI SUSHI-WESTGATE SI NG 06FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>S$45.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>S$159.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer OCBC:717525968001:I-BANK funds transfer OTHR 102286746100</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>S$10.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>S$194.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: DING MINGZHONG OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>S$18.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>S$186.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 08FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>S$5.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>S$198.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4I92CJEGWGTH SI NG 10FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>S$19.80</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>S$184.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>S$304.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4IDC5CCWWGTH SI NG 11FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>S$22.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>S$181.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 13FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>S$6.30</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>S$198.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>S$43.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>S$161.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>S$4.65</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>S$200.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>S$197.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB SI NG 18FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>S$19.10</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>S$185.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 19FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>S$19.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
         <is>
           <t>S$204.67</t>
         </is>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,32 +479,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44955</v>
+        <v>44928</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: SHOPEEPAY PRIVATE LIMITED OTHR SPW6591398051</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>S$20.00</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Funds Transfer 120-363917-2 : I-BANK </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S$700.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>S$224.67</t>
+          <t>S$-495.33</t>
         </is>
       </c>
     </row>
@@ -513,32 +513,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44955</v>
+        <v>44928</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>AWL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>ATM Withdrawal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Advice TRF 592-31883-0 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>S$20.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Cash Withdrawal 09093060,T PAYOH L6/19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>S$700.00</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S$184.67</t>
+          <t>S$904.67</t>
         </is>
       </c>
     </row>
@@ -547,32 +547,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44955</v>
+        <v>44928</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT THE SOUP SPOON PL - UN SI NG 26JAN 4628-4500-4388-5426</t>
+          <t>Funds Transfer 407-39969-2 : I-BANK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>S$32.70</t>
+          <t>S$80.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>S$237.37</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44955</v>
+        <v>44928</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT KOUFU PTE LTD SI NG 27JAN 4628-4500-4388-5426</t>
+          <t>Funds Transfer 407-46105-3 : I-BANK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>S$1.50</t>
+          <t>S$80.00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S$206.17</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -615,202 +615,202 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44956</v>
+        <v>44931</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>GRO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>GIRO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Advice TRF 592-31883-0 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>S$10.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Payments or Collections via GIRO PRUDENTIAL PACS BnC-P/N78233555 78233555</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>S$1,030.00</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S$194.67</t>
+          <t>S$1234.67</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44957</v>
+        <v>44934</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Advice TRF 592-31883-0 : I-BANK</t>
+          <t>FAST / PayNow Transfer Other 20230108OCBCSGSGBRT8337092OTHR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S$10.00</t>
+          <t>S$2,000.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S$194.67</t>
+          <t>S$-1795.33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44957</v>
+        <v>44934</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
+          <t>FAST / PayNow Transfer PayNow Transfer To: NICHOLAS KOH OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>S$10.00</t>
+          <t>S$1,825.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S$214.67</t>
+          <t>S$2029.67</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44957</v>
+        <v>44934</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
+          <t>FAST / PayNow Transfer PayNow Transfer To: jolene OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>S$10.00</t>
+          <t>S$70.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S$214.67</t>
+          <t>S$274.67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44957</v>
+        <v>44934</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT GRAB* A-4GIMAUQGWIWA SI NG 28JAN 4628-4500-4388-5426</t>
+          <t>Funds Transfer 407-39969-2 : I-BANK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S$32.80</t>
+          <t>S$80.00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>S$237.47</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44957</v>
+        <v>44934</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
+          <t>Funds Transfer 407-46105-3 : I-BANK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>S$4.80</t>
+          <t>S$80.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S$209.47</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -819,32 +819,32 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44958</v>
+        <v>44935</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT GOJEK SI NG 27JAN 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>S$25.20</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer Other 20230109OCBCSGSGBRT8525640OTHR</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S$800.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>S$229.87</t>
+          <t>S$-595.33</t>
         </is>
       </c>
     </row>
@@ -853,100 +853,100 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44958</v>
+        <v>44935</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Advice TRF MAXED OUT FROM PAYLAH! : Evelyn</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>S$250.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>Funds Transfer 001-105047-0 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>S$800.00</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S$-45.33</t>
+          <t>S$1004.67</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44959</v>
+        <v>44937</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>IBG</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>GIRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Advice ICT Incoming PayNow Ref 6118807From: KAISER CHUA JIA YU OTHR PayNow Transfer</t>
+          <t>Payments or Collections via GIRO FHG (SG) PIFHG-2301020041-XX0091024105BEXP</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>S$2.80</t>
+          <t>S$140.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S$201.87</t>
+          <t>S$64.67</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44959</v>
+        <v>44938</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: ABHISHEK OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S$6.00</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 5172081From: LENA ONG LAY NAH OTHR Cny bak kwa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S$156.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S$210.67</t>
+          <t>S$48.67</t>
         </is>
       </c>
     </row>
@@ -955,270 +955,270 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44959</v>
+        <v>44938</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>IBG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>GIRO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: Qi Lin OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>S$8.30</t>
-        </is>
-      </c>
+          <t>Payments or Collections via GIRO FHG (SG) PIFHG-2301017517-XX0091024105BEXP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S$120.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S$212.97</t>
+          <t>S$84.67</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44959</v>
+        <v>44939</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: SENG CITY TRADING OTHR 000000445630</t>
+          <t>FAST / PayNow Transfer PayNow Transfer To: Ivy Ling OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>S$6.30</t>
+          <t>S$174.00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S$210.97</t>
+          <t>S$378.67</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44959</v>
+        <v>44942</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Advice ICT Incoming PayNow Ref 6096788From: WU JIANHUI OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>S$3.15</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Funds Transfer 407-46105-3 : I-BANK 407-39969-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>S$201.52</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44959</v>
+        <v>44942</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer OTHR 000000445645</t>
+          <t>Funds Transfer 407-46105-3 : I-BANK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>S$8.55</t>
+          <t>S$37.00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S$213.22</t>
+          <t>S$241.67</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44959</v>
+        <v>44943</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Advice ICT Incoming PayNow Ref 6118504From: CHUA SHI EN OTHR PayNow Transfer</t>
+          <t>FAST / PayNow Transfer Other 20230117OCBCSGSGBRT2190589OTHR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S$2.85</t>
+          <t>S$5,000.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S$201.82</t>
+          <t>S$-4795.33</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44960</v>
+        <v>44943</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,JOLLIBEE NETS</t>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>S$14.00</t>
+          <t>S$2,500.00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S$218.67</t>
+          <t>S$2704.67</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44960</v>
+        <v>44943</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,COMFORT TRANSPORTATION PT NETS CLICK</t>
+          <t>FAST / PayNow Transfer PayNow Transfer To: WUI HONG M&amp;E ENGINEERING PT OTHR Sims Urban Oasis 16-26</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>S$22.80</t>
+          <t>S$360.00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S$227.47</t>
+          <t>S$564.67</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44960</v>
+        <v>44943</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT KOUFU PTE LTD SI NG 01FEB 4628-4500-4388-5426</t>
+          <t>Funds Transfer 407-39969-2 : I-BANK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>S$1.50</t>
+          <t>S$300.00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>S$206.17</t>
+          <t>S$504.67</t>
         </is>
       </c>
     </row>
@@ -1227,32 +1227,32 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44965</v>
+        <v>44944</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT GOJEK SI NG 04FEB 4628-4500-4388-5426</t>
+          <t>Funds Transfer 407-39969-2 : I-BANK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>S$21.20</t>
+          <t>S$200.00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S$225.87</t>
+          <t>S$404.67</t>
         </is>
       </c>
     </row>
@@ -1261,32 +1261,32 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44965</v>
+        <v>44944</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>AWL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>ATM Withdrawal</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT YOLE @ WESTGATE SI NG 06FEB 4628-4500-4388-5426</t>
+          <t>Cash Withdrawal 09093060,SIMS PL/52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>S$5.50</t>
+          <t>S$500.00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S$210.17</t>
+          <t>S$704.67</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44965</v>
+        <v>44945</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>SAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Salary</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Advice ICT PayNow Transfer To: SHOPEEPAY PRIVATE LIMITED OTHR SPW6591398051</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>S$13.00</t>
-        </is>
-      </c>
+          <t>Salary MOET HENNESSY ASIA P SAL-JAN23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>S$9,638.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>S$217.67</t>
+          <t>S$-9433.87</t>
         </is>
       </c>
     </row>
@@ -1329,202 +1329,202 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44966</v>
+        <v>44945</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Advice ICT Incoming PayNow Ref 8157762From: GOH PENG PENG EUNICE OTHR Feb</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S$100.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>FAST / PayNow Transfer PayNow Transfer To: Tay Siok Cheng OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>S$30.00</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S$104.67</t>
+          <t>S$234.67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44966</v>
+        <v>44946</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Credit Card Bill</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
+          <t>Bill Payment CCC -5520380010390686 : I-BANK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>S$3.50</t>
+          <t>S$562.35</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S$208.17</t>
+          <t>S$767.02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44966</v>
+        <v>44946</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Advice POS NETS QR PAYMENT TO: DRINKS AND FRUITS</t>
+          <t>FAST / PayNow Transfer CSL:0486891009:I-BANK funds transfer OTHR 102154214229</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>S$1.40</t>
+          <t>S$3,100.00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S$206.07</t>
+          <t>S$3304.67</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44967</v>
+        <v>44946</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
+          <t>Funds Transfer 001-105047-0 : I-BANK funds transfer</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>S$1.40</t>
+          <t>S$3,600.00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S$206.07</t>
+          <t>S$3804.67</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44967</v>
+        <v>44947</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,COMFORT TRANSPORTATION PT NETS CLICK</t>
+          <t>FAST / PayNow Transfer UOB:1443043042:I-BANK funds transfer OTHR 102163274393</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>S$21.45</t>
+          <t>S$2,000.00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S$226.12</t>
+          <t>S$2204.67</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44968</v>
+        <v>44947</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,COMFORT TRANSPORTATION PT NETS CLICK</t>
+          <t>FAST / PayNow Transfer PayNow Transfer To: Lena ong OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>S$22.15</t>
+          <t>S$28.00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>S$226.82</t>
+          <t>S$232.67</t>
         </is>
       </c>
     </row>
@@ -1533,32 +1533,32 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44969</v>
+        <v>44949</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT KOUFU PTE LTD SI NG 10FEB 4628-4500-4388-5426</t>
+          <t>Funds Transfer 407-39969-2 : I-BANK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>S$3.00</t>
+          <t>S$20.00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S$207.67</t>
+          <t>S$224.67</t>
         </is>
       </c>
     </row>
@@ -1567,32 +1567,32 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44972</v>
+        <v>44949</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT 7-ELEVEN-DOVER MRT SI NG 13FEB 4628-4500-4388-5426</t>
+          <t>Funds Transfer 407-39969-2 : I-BANK</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>S$10.00</t>
+          <t>S$130.00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>S$214.67</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
@@ -1601,32 +1601,32 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44972</v>
+        <v>44951</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>GRO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>GIRO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT KOUFU PTE LTD SI NG 13FEB 4628-4500-4388-5426BAT KOUFU PTE LTD SI NG 13FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>S$3.00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Payments or Collections via GIRO PRUDENTIAL PACS BnC-P/N80630374 80630374407-46105-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>S$85.45</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>S$201.67</t>
+          <t>S$290.12</t>
         </is>
       </c>
     </row>
@@ -1635,32 +1635,32 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44972</v>
+        <v>44954</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT TRANSIT 30000528299185 SI NG 13FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>S$20.00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Funds Transfer TOP-UP TO PAYLAH! : Joey Ong</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>S$5.10</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>S$184.67</t>
+          <t>S$209.77</t>
         </is>
       </c>
     </row>
@@ -1669,32 +1669,32 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44972</v>
+        <v>44957</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Advice TRF TOP-UP TO PAYLAH! : klaudine</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>S$1.60</t>
+          <t>S$0.05</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S$203.07</t>
+          <t>S$204.62</t>
         </is>
       </c>
     </row>
@@ -1703,32 +1703,32 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44972</v>
+        <v>44961</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Advice TRF MAXED OUT FROM PAYLAH! : Evelyn</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>S$228.50</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>FAST / PayNow Transfer PayNow Transfer To: jolene OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>S$56.00</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>S$-23.83</t>
+          <t>S$260.67</t>
         </is>
       </c>
     </row>
@@ -1737,32 +1737,32 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44974</v>
+        <v>44963</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>GRO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>GIRO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS 43885426,COMFORT TRANSPORTATION PT NETS CLICK</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>S$23.10</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Payments or Collections via GIRO PRUDENTIAL PACS BnC-P/N78233555 78233555</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>S$1,030.00</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>S$181.57</t>
+          <t>S$1234.67</t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44975</v>
+        <v>44965</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT MCDONALD'S (PRC2) SI NG 14FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>S$1.00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Funds Transfer 407-46105-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>S$25.00</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>S$203.67</t>
+          <t>S$229.67</t>
         </is>
       </c>
     </row>
@@ -1805,100 +1805,100 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44979</v>
+        <v>44969</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Advice POS NETS QR PAYMENT TO: MEI HEONG YUEN DESSERT</t>
+          <t>FAST / PayNow Transfer Other 20230212OCBCSGSGBRT3817093OTHR</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>S$8.00</t>
+          <t>S$1,200.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S$196.67</t>
+          <t>S$-995.33</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44982</v>
+        <v>44969</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT DBS VISA DEBIT CASHBACK J AN 23FEB 4628-4500-4388-5426</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>S$7.29</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>S$1,200.00</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>S$197.38</t>
+          <t>S$1404.67</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44982</v>
+        <v>44971</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PayLah</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Advice TRF 592-31883-0 : I-BANK</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7730563From: CHEN FONG KENG OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>S$200.00</t>
+          <t>S$18.90</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S$4.67</t>
+          <t>S$185.77</t>
         </is>
       </c>
     </row>
@@ -1907,30 +1907,574 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44982</v>
+        <v>44971</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction BAT MCDONALD'S (PRSC) SI NG 21FEB 4628-4500-4388-5426</t>
+          <t>Funds Transfer SEND BACK FROM PAYLAH! : 97554379</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>S$4.15</t>
+          <t>S$56.70</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>S$147.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AWL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ATM Withdrawal</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cash Withdrawal 09093060,SIMS PL/52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>S$304.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>IBG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GIRO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Payments or Collections via GIRO PRUDENTIAL ASSURANCE CO S'PORE (PTE Prudential Payment: SG7240086OTHR</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>S$750.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>S$-545.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SAL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Salary MOET HENNESSY ASIA P SAL-FEB23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>S$9,645.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>S$-9440.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Funds Transfer 001-105047-0 : I-BANK funds transfer</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>S$4,100.00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>S$4304.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BILL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Credit Card Bill</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Bill Payment CCC -5520380010390686 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>S$576.77</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>S$781.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer CSL:0486891009:I-BANK funds transfer OTHR 102334677609</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>S$3,200.00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>S$3404.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>S$500.00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>S$704.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: HAINANESE DELICACY PTE. LTD. OTHR Na 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>S$45.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>S$159.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AWL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>ATM Withdrawal</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Cash Withdrawal 09093060,NAC FPC 2</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>S$600.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>S$-395.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Funds Transfer 407-39969-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>S$124.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>S$124.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: HITPAY PAYMENTS -CUSTOMERS' OTHR DICNP167685684212808DDI2F</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>S$56.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>S$148.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction NETS QR PAYMENT TO: NATUREVEGEDELIGHTS</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>S$104.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>S$100.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>S$104.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>GRO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GIRO</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Payments or Collections via GIRO PRUDENTIAL PACS BnC-P/N80630374 80630374</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>S$85.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>S$119.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>S$204.67</t>
         </is>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,32 +479,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44928</v>
+        <v>44893</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Funds Transfer 120-363917-2 : I-BANK </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>S$700.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 3946391From: ONG LAY HONG OTHR Transfer - Mobile</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>S$-495.33</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -513,32 +513,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44928</v>
+        <v>44894</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AWL</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ATM Withdrawal</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cash Withdrawal 09093060,T PAYOH L6/19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>S$700.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 25NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S$21.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S$904.67</t>
+          <t>S$182.92</t>
         </is>
       </c>
     </row>
@@ -547,32 +547,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44928</v>
+        <v>44894</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-39969-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 26NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S$19.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>S$284.67</t>
+          <t>S$185.27</t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44928</v>
+        <v>44894</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-46105-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 27NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S$28.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S$284.67</t>
+          <t>S$175.97</t>
         </is>
       </c>
     </row>
@@ -615,32 +615,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44931</v>
+        <v>44895</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GRO</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GIRO</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Payments or Collections via GIRO PRUDENTIAL PACS BnC-P/N78233555 78233555</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>S$1,030.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 28NOV 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S$43.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S$1234.67</t>
+          <t>S$161.47</t>
         </is>
       </c>
     </row>
@@ -649,32 +649,32 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44934</v>
+        <v>44895</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer Other 20230108OCBCSGSGBRT8337092OTHR</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S$2,000.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S$0.02</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S$-1795.33</t>
+          <t>S$204.69</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44934</v>
+        <v>44898</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -697,18 +697,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: NICHOLAS KOH OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>S$1,825.00</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer PayNow Transfer To: klaudine OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S$25.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S$2029.67</t>
+          <t>S$179.67</t>
         </is>
       </c>
     </row>
@@ -717,32 +717,32 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44934</v>
+        <v>44898</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: jolene OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>S$70.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 02DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S$7.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S$274.67</t>
+          <t>S$197.17</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44934</v>
+        <v>44900</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-39969-2 : I-BANK</t>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -785,32 +785,32 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44934</v>
+        <v>44901</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-46105-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>S$80.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GRAB* A-49CMS4JWWJQO SI NG 03DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S$17.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S$284.67</t>
+          <t>S$187.67</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44935</v>
+        <v>44901</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -833,18 +833,18 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer Other 20230109OCBCSGSGBRT8525640OTHR</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>S$800.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 9409238From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>S$15.90</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>S$-595.33</t>
+          <t>S$220.57</t>
         </is>
       </c>
     </row>
@@ -853,32 +853,32 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44935</v>
+        <v>44901</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Funds Transfer 001-105047-0 : I-BANK</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 9416410From: RAYMOND LOONG NG ( HOANG LONG OTHR Send back 93884185</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>S$800.00</t>
+          <t>S$2.80</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S$1004.67</t>
+          <t>S$207.47</t>
         </is>
       </c>
     </row>
@@ -887,100 +887,100 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44937</v>
+        <v>44902</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IBG</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GIRO</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Payments or Collections via GIRO FHG (SG) PIFHG-2301020041-XX0091024105BEXP</t>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 05DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>S$140.00</t>
+          <t>S$7.20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S$64.67</t>
+          <t>S$197.47</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44938</v>
+        <v>44903</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 5172081From: LENA ONG LAY NAH OTHR Cny bak kwa</t>
+          <t>Debit Card Transaction IPPUDO - WEST GATE SI NG 06DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>S$156.00</t>
+          <t>S$89.92</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S$48.67</t>
+          <t>S$114.75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44938</v>
+        <v>44905</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IBG</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GIRO</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Payments or Collections via GIRO FHG (SG) PIFHG-2301017517-XX0091024105BEXP</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>S$120.00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S$34.60</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S$84.67</t>
+          <t>S$239.27</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44939</v>
+        <v>44906</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: Ivy Ling OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>S$174.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction HOSHINO COFFEE SI NG 10DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S$53.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S$378.67</t>
+          <t>S$151.67</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44942</v>
+        <v>44907</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-46105-3 : I-BANK 407-39969-2 : I-BANK</t>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1057,32 +1057,32 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44942</v>
+        <v>44907</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Point-Of-Sale</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-46105-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>S$37.00</t>
-        </is>
-      </c>
+          <t>Point-of-Sale Transaction 43375097,RPG-INT PTE LTD NETS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S$49.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S$241.67</t>
+          <t>S$154.77</t>
         </is>
       </c>
     </row>
@@ -1091,32 +1091,32 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44943</v>
+        <v>44908</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer Other 20230117OCBCSGSGBRT2190589OTHR</t>
+          <t>Debit Card Transaction PHOON HUAT PTE LTD SI NG 10DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S$5,000.00</t>
+          <t>S$31.88</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S$-4795.33</t>
+          <t>S$172.79</t>
         </is>
       </c>
     </row>
@@ -1125,32 +1125,32 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44943</v>
+        <v>44908</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>S$2,500.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction DELIVEROO SI NG 11DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S$20.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S$2704.67</t>
+          <t>S$184.38</t>
         </is>
       </c>
     </row>
@@ -1159,32 +1159,32 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44943</v>
+        <v>44910</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: WUI HONG M&amp;E ENGINEERING PT OTHR Sims Urban Oasis 16-26</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>S$360.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 12DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S$5.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S$564.67</t>
+          <t>S$198.94</t>
         </is>
       </c>
     </row>
@@ -1193,32 +1193,32 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44943</v>
+        <v>44910</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-39969-2 : I-BANK</t>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK N OV 13DEC 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>S$300.00</t>
+          <t>S$1.86</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>S$504.67</t>
+          <t>S$206.53</t>
         </is>
       </c>
     </row>
@@ -1227,32 +1227,32 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44944</v>
+        <v>44912</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-39969-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>S$200.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 13DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>S$11.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S$404.67</t>
+          <t>S$193.32</t>
         </is>
       </c>
     </row>
@@ -1261,32 +1261,32 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44944</v>
+        <v>44912</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AWL</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ATM Withdrawal</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cash Withdrawal 09093060,SIMS PL/52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>S$500.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GRAB* A-4AT3926GWE4O SI NG 14DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>S$43.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S$704.67</t>
+          <t>S$160.87</t>
         </is>
       </c>
     </row>
@@ -1295,236 +1295,236 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44945</v>
+        <v>44915</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Salary MOET HENNESSY ASIA P SAL-JAN23</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>S$9,638.54</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>S$-9433.87</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44945</v>
+        <v>44920</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: Tay Siok Cheng OTHR PayNow Transfer</t>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>S$30.00</t>
+          <t>S$130.00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S$234.67</t>
+          <t>S$334.67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44946</v>
+        <v>44920</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BILL</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Credit Card Bill</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bill Payment CCC -5520380010390686 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>S$562.35</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GRAB* A-4CWTSEBWWJUQ SI NG 23DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S$17.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S$767.02</t>
+          <t>S$187.12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44946</v>
+        <v>44920</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer CSL:0486891009:I-BANK funds transfer OTHR 102154214229</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>S$3,100.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction BOOST JUICE RCS SI NG 24DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>S$5.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S$3304.67</t>
+          <t>S$198.77</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44946</v>
+        <v>44920</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Funds Transfer 001-105047-0 : I-BANK funds transfer</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>S$3,600.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 22DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>S$25.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S$3804.67</t>
+          <t>S$179.32</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44947</v>
+        <v>44920</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer UOB:1443043042:I-BANK funds transfer OTHR 102163274393</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>S$2,000.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK SI NG 22DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S$2204.67</t>
+          <t>S$197.47</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44947</v>
+        <v>44921</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: Lena ong OTHR PayNow Transfer</t>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>S$28.00</t>
+          <t>S$100.00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>S$232.67</t>
+          <t>S$304.67</t>
         </is>
       </c>
     </row>
@@ -1533,32 +1533,32 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44949</v>
+        <v>44923</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-39969-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>S$20.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction BUILDER AT SIMS SI NG 25DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>S$48.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S$224.67</t>
+          <t>S$155.77</t>
         </is>
       </c>
     </row>
@@ -1567,32 +1567,32 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44949</v>
+        <v>44923</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-39969-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>S$130.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK 90 10 23DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>S$34.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>S$334.67</t>
+          <t>S$169.97</t>
         </is>
       </c>
     </row>
@@ -1601,32 +1601,32 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44951</v>
+        <v>44923</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GRO</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GIRO</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Payments or Collections via GIRO PRUDENTIAL PACS BnC-P/N80630374 80630374407-46105-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>S$85.45</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction IPPUDO - RAFFLES CITY SI NG 24DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>S$69.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>S$290.12</t>
+          <t>S$134.81</t>
         </is>
       </c>
     </row>
@@ -1635,32 +1635,32 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44954</v>
+        <v>44926</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Funds Transfer TOP-UP TO PAYLAH! : Joey Ong</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>S$5.10</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 29DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>S$5.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>S$209.77</t>
+          <t>S$199.17</t>
         </is>
       </c>
     </row>
@@ -1669,32 +1669,32 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44957</v>
+        <v>44926</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>S$0.05</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>S$14.00</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S$204.62</t>
+          <t>S$218.67</t>
         </is>
       </c>
     </row>
@@ -1703,32 +1703,32 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44961</v>
+        <v>44926</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: jolene OTHR PayNow Transfer</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>S$56.00</t>
+          <t>S$0.01</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>S$260.67</t>
+          <t>S$204.68</t>
         </is>
       </c>
     </row>
@@ -1737,32 +1737,32 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44963</v>
+        <v>44927</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GRO</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GIRO</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Payments or Collections via GIRO PRUDENTIAL PACS BnC-P/N78233555 78233555</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>S$1,030.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 30DEC 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>S$14.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>S$1234.67</t>
+          <t>S$190.67</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44965</v>
+        <v>44928</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1785,18 +1785,18 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-46105-3 : I-BANK</t>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>S$25.00</t>
+          <t>S$80.00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>S$229.67</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44969</v>
+        <v>44928</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1819,61 +1819,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer Other 20230212OCBCSGSGBRT3817093OTHR</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>S$1,200.00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 5364842From: ASON ANG CHEE KAY OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>S$54.10</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S$-995.33</t>
+          <t>S$258.77</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44969</v>
+        <v>44929</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7582094From: CHLOE UEDA TEO WEI SHAN OTHR PayNow Transfer</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>S$1,200.00</t>
+          <t>S$42.00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>S$1404.67</t>
+          <t>S$246.67</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44971</v>
+        <v>44929</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1887,86 +1887,86 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer Incoming PayNow Ref 7730563From: CHEN FONG KENG OTHR PayNow Transfer</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>S$18.90</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7172069From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>S$54.00</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S$185.77</t>
+          <t>S$258.67</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44971</v>
+        <v>44930</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Funds Transfer SEND BACK FROM PAYLAH! : 97554379</t>
+          <t>Debit Card Transaction GOJEK 90 10 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>S$56.70</t>
+          <t>S$17.70</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>S$147.97</t>
+          <t>S$186.97</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44972</v>
+        <v>44930</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AWL</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ATM Withdrawal</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cash Withdrawal 09093060,SIMS PL/52</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>S$100.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction BOOST JUICE ION SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>S$5.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>S$304.67</t>
+          <t>S$199.37</t>
         </is>
       </c>
     </row>
@@ -1975,32 +1975,32 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44973</v>
+        <v>44931</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>IBG</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GIRO</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Payments or Collections via GIRO PRUDENTIAL ASSURANCE CO S'PORE (PTE Prudential Payment: SG7240086OTHR</t>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>S$750.00</t>
+          <t>S$42.65</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>S$-545.33</t>
+          <t>S$162.02</t>
         </is>
       </c>
     </row>
@@ -2009,32 +2009,32 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44974</v>
+        <v>44931</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Salary MOET HENNESSY ASIA P SAL-FEB23</t>
+          <t>Debit Card Transaction GUO FU SI NG 02JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>S$9,645.54</t>
+          <t>S$167.98</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>S$-9440.87</t>
+          <t>S$36.69</t>
         </is>
       </c>
     </row>
@@ -2043,32 +2043,32 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44974</v>
+        <v>44931</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Funds Transfer 001-105047-0 : I-BANK funds transfer</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>S$4,100.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction GOJEK SI NG 02JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>S$24.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>S$4304.67</t>
+          <t>S$180.47</t>
         </is>
       </c>
     </row>
@@ -2077,32 +2077,32 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44974</v>
+        <v>44931</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BILL</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Credit Card Bill</t>
+          <t>PayNow</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bill Payment CCC -5520380010390686 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>S$576.77</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer PayNow Transfer To: NIMMAGADDA VINEESH OTHR PayNow Transfer slayyy</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>S$27.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>S$781.44</t>
+          <t>S$177.67</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44974</v>
+        <v>44932</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2125,18 +2125,18 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer CSL:0486891009:I-BANK funds transfer OTHR 102334677609</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>S$3,200.00</t>
-        </is>
-      </c>
+          <t>FAST / PayNow Transfer PayNow Transfer To: HEARTLANDS OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>S$16.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>S$3404.67</t>
+          <t>S$188.67</t>
         </is>
       </c>
     </row>
@@ -2145,32 +2145,32 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44974</v>
+        <v>44933</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Funds Transfer 126-17874-3 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>S$500.00</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 06JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>S$704.67</t>
+          <t>S$203.17</t>
         </is>
       </c>
     </row>
@@ -2179,32 +2179,32 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44975</v>
+        <v>44933</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: HAINANESE DELICACY PTE. LTD. OTHR Na 120-363917-2 : I-BANK</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>S$45.20</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>S$44.00</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>S$159.47</t>
+          <t>S$248.67</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44975</v>
+        <v>44934</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AWL</t>
+          <t>ITR</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ATM Withdrawal</t>
+          <t>Funds Transfer</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cash Withdrawal 09093060,NAC FPC 2</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>S$600.00</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>S$-395.33</t>
+          <t>S$284.67</t>
         </is>
       </c>
     </row>
@@ -2247,32 +2247,32 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44975</v>
+        <v>44936</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Funds Transfer 407-39969-2 : I-BANK</t>
+          <t>Debit Card Transaction GOJEK 90 10 08JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>S$80.00</t>
+          <t>S$20.90</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>S$124.67</t>
+          <t>S$183.77</t>
         </is>
       </c>
     </row>
@@ -2281,32 +2281,32 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44975</v>
+        <v>44937</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+          <t>Debit Card Transaction PIZZAKAYA-JEM SI NG 09JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>S$80.00</t>
+          <t>S$68.19</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>S$124.67</t>
+          <t>S$136.48</t>
         </is>
       </c>
     </row>
@@ -2315,100 +2315,100 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44977</v>
+        <v>44937</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PayNow</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FAST / PayNow Transfer PayNow Transfer To: HITPAY PAYMENTS -CUSTOMERS' OTHR DICNP167685684212808DDI2F</t>
+          <t>Debit Card Transaction GOJEK SI NG 07JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>S$56.20</t>
+          <t>S$28.10</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>S$148.47</t>
+          <t>S$176.57</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44978</v>
+        <v>44938</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Point-Of-Sale</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Point-of-Sale Transaction NETS QR PAYMENT TO: NATUREVEGEDELIGHTS</t>
+          <t>Debit Card Transaction SHABURI &amp; KINTAN BUFFE SI NG 10JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>S$104.30</t>
+          <t>S$32.79</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>S$100.37</t>
+          <t>S$171.88</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44978</v>
+        <v>44938</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 09JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>S$100.00</t>
+          <t>S$5.85</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>S$104.67</t>
+          <t>S$198.82</t>
         </is>
       </c>
     </row>
@@ -2417,32 +2417,32 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44978</v>
+        <v>44939</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GRO</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>GIRO</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Payments or Collections via GIRO PRUDENTIAL PACS BnC-P/N80630374 80630374</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>S$85.45</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK D EC 11JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>S$4.76</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>S$119.22</t>
+          <t>S$209.43</t>
         </is>
       </c>
     </row>
@@ -2451,30 +2451,2002 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44980</v>
+        <v>44941</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ITR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Funds Transfer</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+          <t>Debit Card Transaction GRAB* A-4ENEVT9GWJQG SI NG 13JAN 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>S$100.00</t>
+          <t>S$34.80</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>S$169.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>S$404.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859247</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>S$10.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>S$194.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008859251</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>S$104.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>S$90.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>S$114.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MCDONALD'S (SP2) SI NG 12JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>S$10.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>S$194.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction 43375097,KOI THE SINGAPORE PTE LTD NETS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>S$7.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>S$197.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>S$300.00</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>S$504.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: COMFORTDELGRO DRIVING CEN OTHR M1TA147540008862432</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>S$4.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction LA SENZA SI NG 17JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>S$55.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>S$149.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>S$3.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>S$201.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>S$404.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* I2KP0MI HT TP 17JAN 4628-4500-4337-5097 USD10.00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>S$13.66</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>S$191.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ABURI EN@JEM SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>S$49.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>S$154.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FAIRPRICE XTRA - JEM SI NG 16JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>S$3.88</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>S$200.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>S$3.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>S$201.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>S$22.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>S$181.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* 5QK143T HT TP 19JAN 4628-4500-4337-5097 USD40.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>S$54.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>S$149.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 20JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>S$15.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>S$189.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOPITIAM @ PAYA LEBAR SI NG 20JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>S$2.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>S$202.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>S$20.00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>S$224.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>S$130.00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>S$334.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction 43375097,MR BEAN NETS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>S$1.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>S$202.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>S$203.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 27JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>S$17.90</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>S$186.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* O9UCR62 HT TP 27JAN 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S$67.87</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>S$136.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>S$204.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BOOST JUICE JEM SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>S$11.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>S$193.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ICE LAB SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>S$18.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>S$186.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>S$203.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>S$23.80</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>S$180.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 31JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>S$4.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>S$200.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction NIPONG NAEPONG SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>S$48.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>S$156.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* 5FZDXGW HT TP 01FEB 4628-4500-4337-5097 USD30.00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>S$40.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>S$163.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 01FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>S$20.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>S$184.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* SHBNCWO HT TP 03FEB 4628-4500-4337-5097 USD20.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>S$27.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>S$177.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>S$404.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* IU1HJJZ HT TP 03FEB 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>S$67.72</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>S$136.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* HSPFHZ5 HT TP 04FEB 4628-4500-4337-5097 USD50.00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>S$68.35</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>S$136.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction VAST.AI* C9W45F2 HT TP 05FEB 4628-4500-4337-5097 USD20.00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>S$27.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>S$177.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 04FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>S$5.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>S$199.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4HPVK7XWWFXM SI NG 06FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>S$33.25</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>S$171.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GENKI SUSHI-WESTGATE SI NG 06FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>S$45.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>S$159.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer OCBC:717525968001:I-BANK funds transfer OTHR 102286746100</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>S$10.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>S$194.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: DING MINGZHONG OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>S$18.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>S$186.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 08FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>S$5.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>S$198.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4I92CJEGWGTH SI NG 10FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>S$19.80</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>S$184.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>S$100.00</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>S$304.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4IDC5CCWWGTH SI NG 11FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>S$22.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>S$181.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 13FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>S$6.30</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>S$198.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>S$43.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>S$161.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>S$4.65</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>S$200.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 17FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>S$7.20</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>S$197.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB SI NG 18FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>S$19.10</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>S$185.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 19FEB 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>S$19.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
         <is>
           <t>S$204.67</t>
         </is>

--- a/parsed.xlsx
+++ b/parsed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3400,69 +3400,69 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
+          <t>Card Transaction</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Interest Earned</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>S$0.01</t>
-        </is>
-      </c>
+          <t>Debit Card Transaction BOOST JUICE JEM SI NG 30JAN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>S$11.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>S$204.68</t>
+          <t>S$193.67</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Card Transaction</t>
+          <t>Interest Earned</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Debit Card Transaction BOOST JUICE JEM SI NG 30JAN 4628-4500-4337-5097</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>S$11.00</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>S$193.67</t>
+          <t>S$204.68</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>44964</v>
@@ -3859,24 +3859,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Debit Card Transaction VAST.AI* HSPFHZ5 HT TP 04FEB 4628-4500-4337-5097 USD50.00</t>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 04FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>S$68.35</t>
+          <t>S$5.50</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>S$136.32</t>
+          <t>S$199.17</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>44964</v>
@@ -3893,24 +3893,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Debit Card Transaction VAST.AI* C9W45F2 HT TP 05FEB 4628-4500-4337-5097 USD20.00</t>
+          <t>Debit Card Transaction VAST.AI* HSPFHZ5 HT TP 04FEB 4628-4500-4337-5097 USD50.00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S$27.34</t>
+          <t>S$68.35</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>S$177.33</t>
+          <t>S$136.32</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>44964</v>
@@ -3927,18 +3927,18 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 04FEB 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction VAST.AI* C9W45F2 HT TP 05FEB 4628-4500-4337-5097 USD20.00</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>S$5.50</t>
+          <t>S$27.34</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>S$199.17</t>
+          <t>S$177.33</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>44978</v>
@@ -4403,24 +4403,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GRAB SI NG 18FEB 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GOJEK 90 10 19FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>S$19.10</t>
+          <t>S$19.00</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>S$185.57</t>
+          <t>S$185.67</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>44978</v>
@@ -4437,16 +4437,4096 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Debit Card Transaction GOJEK 90 10 19FEB 4628-4500-4337-5097</t>
+          <t>Debit Card Transaction GRAB SI NG 18FEB 4628-4500-4337-5097</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>S$19.00</t>
+          <t>S$19.10</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
+        <is>
+          <t>S$185.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction QIN JI ROUGAMO - PLS SI NG 18MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>S$25.70</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>S$178.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK SI NG 18MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>S$16.50</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>S$188.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>S$34.24</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>S$238.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>S$13.46</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>S$218.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>S$25.70</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>S$230.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB SI NG 24MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>S$25.70</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>S$178.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 24MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>S$34.24</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>S$170.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 24MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>S$13.46</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>S$191.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SAL</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Salary DELIVERY HERO APAC PTE. LIMITED Salary</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>S$913.04</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>S$1117.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>S$40.00</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>S$244.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK F EB 29MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>S$11.48</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>S$216.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>S$42.50</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>S$247.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 29MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>S$19.62</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>S$185.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>S$204.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 29MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>S$19.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>S$184.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>S$148.00</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>S$352.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45018</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 30MAR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>S$42.50</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>S$162.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 01APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>S$36.72</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>S$167.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 01APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>S$30.44</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>S$174.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 01APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>S$11.80</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>S$192.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>S$239.00</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>S$443.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 06APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>S$8.55</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>S$196.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BOOST JUICE ION SI NG 08APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>S$5.90</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>S$198.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BEST DENKI-NGEE ANN CI SI NG 08APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>S$239.00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>S$-34.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction WELCIA-BHG (ORCHARD) SI NG 08APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>S$1.50</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>S$203.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction NETS QR PAYMENT TO: THE SALAD CORNER</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>S$7.00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>S$197.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 09APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>S$5.83</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>S$198.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction NETS QR PAYMENT TO: CRAFT'B</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>S$9.30</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>S$195.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 10APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>S$28.49</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>S$176.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 08APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>S$22.50</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>S$182.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 14APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>S$22.49</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>S$182.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45035</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOPITIAM@PLQ SI NG 18APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>S$7.80</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>S$196.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 18APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>S$8.40</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>S$196.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction AUNTIE ANNE'S-PAYA LEB SI NG 18APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>S$3.80</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>S$200.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FINEST PAYA LEBAR QUAR SI NG 18APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>S$19.85</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>S$184.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 21APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>S$3.00</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>S$201.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 21APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>S$19.80</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>S$184.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 20APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>S$5.40</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>S$199.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>S$114.00</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>S$318.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 20APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>S$20.20</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>S$184.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 22APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>S$33.52</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>S$171.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: klaudine OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>S$90.00</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>S$114.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 7360864From: KLAUDINE SHANNON QUEK OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>S$90.00</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>S$294.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ORDER.PLAC* TONKOTSUKI SI NG 24APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>S$40.15</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>S$164.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction DBS VISA DEBIT CASHBACK M AR 24APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>S$9.22</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>S$213.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 25APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>S$17.58</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>S$187.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BOOST JUICE VIVOCITY E SI NG 26APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>S$5.50</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>S$199.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SAL</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Salary DELIVERY HERO APAC PTE. LIMITED Salary</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>S$1,260.00</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>S$1464.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 27APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>S$0.66</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>S$204.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GUIGA SI NG 26APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>S$179.38</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>S$25.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction YA KUN CAFE PTE LTD SI NG 28APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>S$11.20</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>S$193.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>S$0.06</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>S$204.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 28APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>S$55.60</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>S$149.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction NETS QR PAYMENT TO: THE SALAD CORNER</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>S$7.00</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>S$197.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BONCHON - PLQ SI NG 29APR 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>S$56.20</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>S$148.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer Incoming PayNow Ref 6373899From: CHIA WEE LEONG OTHR PayNomaidjw Transfer</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>S$0.01</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>S$204.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45050</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 02MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>S$35.01</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>S$169.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45051</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction NETS QR PAYMENT TO: PAIK'S BIBIM</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>S$26.00</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>S$178.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45052</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 04MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>S$2.94</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>S$201.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 08MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>S$16.40</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>S$188.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 08MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>S$16.40</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>S$188.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction Foodpanda Singapore SI NG 08MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>S$16.40</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>S$221.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 2909MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>S$5.65</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>S$199.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 10MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>S$8.37</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>S$196.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 11MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>S$1.30</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>S$203.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 12MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>S$5.99</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>S$198.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: Lena ong OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>S$38.29</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>S$166.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BY INVITE ONLY - ION O SI NG 14MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>S$83.30</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>S$121.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GET*NIPONG NAEPONG SI NG 12MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>S$73.54</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>S$131.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction ESTEE LAUDER COSMETICS SI NG 14MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>S$118.00</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>S$86.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>S$56.00</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>S$260.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BUILDER AT SIMS SI NG 15MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>S$61.54</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>S$143.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 17MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>S$55.68</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>S$148.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45066</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction KOUFU PTE LTD SI NG 19MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>S$17.50</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>S$187.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45067</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction LUNA SI NG 19MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>S$37.26</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>S$167.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>45067</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction CABCHARGE ASIA PTE LTD SI NG 19MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>S$32.20</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>S$172.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>45067</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 20MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>S$32.29</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>S$172.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 21MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>S$23.30</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>S$181.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>S$45.60</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>S$250.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45070</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 22MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>S$45.60</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>S$159.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>45070</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>S$44.60</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>S$249.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SAL</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Salary DELIVERY HERO APAC PTE. LIMITED Salary</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>S$1,120.00</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>S$1324.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MAGE.SPACE HT TP 24MAY 4628-4500-4337-5097 USD4.00</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>S$5.57</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>S$199.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GRAB* A-4VIBP3LGWEDG SI NG 24MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>S$44.60</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>S$160.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction SP WINDFLOWERFLORIST SI NG 24MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>S$112.86</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>S$91.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 25MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>S$3.34</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>S$201.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>POS</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Point-Of-Sale</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Point-of-Sale Transaction 43375097,SIGNATURE KOI SINGAPORE P NETS</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>S$7.60</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>S$197.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>45074</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 26MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>S$33.30</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>S$171.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Funds Transfer 126-17874-3 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>S$31.00</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>S$235.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction CMART - SIMS DRIVE SI NG 26MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>S$2.00</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>S$202.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction HILTON HOTELS SI NG 27MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>S$137.80</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>S$66.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction BEDROCK BAR &amp; GRILL SI NG 27MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>S$361.15</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>S$-156.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 29MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>S$30.95</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>S$173.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Interest Earned</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>S$0.09</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>S$204.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 31MAY 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>S$32.35</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>S$172.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GENKI SUSHI-SPC SI NG 01JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>S$60.71</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>S$143.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: Lee Ann OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>S$13.00</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>S$191.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 01JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>S$3.59</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>S$201.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction MCDONALD'S (PLSQ) SI NG 02JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>S$12.95</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>S$191.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 06JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>S$31.55</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>S$173.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction FOODPANDA SINGAPORE SI NG 08JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>S$0.78</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>S$203.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOJEK 90 10 08JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>S$19.40</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>S$185.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction GOPAY-GOJEK SI NG 08JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>S$6.50</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>S$198.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction PAYPAL *NINTENDO 40 29 08JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>S$5.56</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>S$199.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>S$80.00</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>S$284.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Funds Transfer 009-1-024105 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>S$170.00</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>S$34.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Card Transaction</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Debit Card Transaction SPF SPFEPDL202306131881713JUN 4628-4500-4337-5097</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>S$25.00</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>S$179.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer PayNow Transfer To: Shi Ying OTHR PayNow Transfer</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>S$16.20</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>S$188.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Funds Transfer</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Funds Transfer 120-363917-2 : I-BANK</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>S$425.00</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>S$629.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer OTHR M1TA147540009146340PayNow Transfer To: COMFORTDELGRO DRIVING CEN</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>S$4.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>PayNow</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>FAST / PayNow Transfer OTHR M1TA147540009146209PayNow Transfer To: COMFORTDELGRO DRIVING CEN</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>S$200.00</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
         <is>
           <t>S$204.67</t>
         </is>
